--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -57932,19 +57932,19 @@
         <v>3</v>
       </c>
       <c r="AV274">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW274">
         <v>2</v>
       </c>
       <c r="AX274">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY274">
         <v>5</v>
       </c>
       <c r="AZ274">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA274">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,18 @@
     <t>['1', '85']</t>
   </si>
   <si>
+    <t>['57', '81']</t>
+  </si>
+  <si>
+    <t>['24', '65', '90+6']</t>
+  </si>
+  <si>
+    <t>['16', '37', '57', '87']</t>
+  </si>
+  <si>
+    <t>['17', '45']</t>
+  </si>
+  <si>
     <t>['10']</t>
   </si>
   <si>
@@ -1185,6 +1197,12 @@
   <si>
     <t>['1', '60']</t>
   </si>
+  <si>
+    <t>['27', '81']</t>
+  </si>
+  <si>
+    <t>['23', '73', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2010,7 +2028,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2297,7 +2315,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ4">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2422,7 +2440,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2500,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
         <v>1.19</v>
@@ -2628,7 +2646,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2834,7 +2852,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3040,7 +3058,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3246,7 +3264,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q9">
         <v>1.91</v>
@@ -3658,7 +3676,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q11">
         <v>4.4</v>
@@ -3736,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>0.73</v>
@@ -3864,7 +3882,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3945,7 +3963,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4070,7 +4088,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -4148,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>2.47</v>
@@ -4357,7 +4375,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4482,7 +4500,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q15">
         <v>3.7</v>
@@ -4769,7 +4787,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4894,7 +4912,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>3.16</v>
@@ -4972,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>1.69</v>
@@ -5178,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5384,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5512,7 +5530,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q20">
         <v>4.33</v>
@@ -5924,7 +5942,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6130,7 +6148,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q23">
         <v>1.95</v>
@@ -6748,7 +6766,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6954,7 +6972,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -7650,10 +7668,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7856,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31">
         <v>1.19</v>
@@ -7984,7 +8002,7 @@
         <v>115</v>
       </c>
       <c r="P32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8062,10 +8080,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR32">
         <v>0.87</v>
@@ -8271,7 +8289,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -8474,10 +8492,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8602,7 +8620,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q35">
         <v>4.33</v>
@@ -8680,7 +8698,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35">
         <v>1.19</v>
@@ -8889,7 +8907,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36">
         <v>1.31</v>
@@ -9014,7 +9032,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9220,7 +9238,7 @@
         <v>121</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q38">
         <v>1.95</v>
@@ -9426,7 +9444,7 @@
         <v>122</v>
       </c>
       <c r="P39" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9710,7 +9728,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -9838,7 +9856,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -10125,7 +10143,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR42">
         <v>1.63</v>
@@ -10250,7 +10268,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q43">
         <v>2.5</v>
@@ -10456,7 +10474,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10537,7 +10555,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>1.03</v>
@@ -11074,7 +11092,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -11152,7 +11170,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ47">
         <v>1.44</v>
@@ -11280,7 +11298,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11361,7 +11379,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ48">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR48">
         <v>0.85</v>
@@ -11564,7 +11582,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>1.47</v>
@@ -11692,7 +11710,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11770,10 +11788,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11976,7 +11994,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -12104,7 +12122,7 @@
         <v>128</v>
       </c>
       <c r="P52" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12182,10 +12200,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
         <v>1.78</v>
@@ -12391,7 +12409,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR53">
         <v>1.58</v>
@@ -12722,7 +12740,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -13340,7 +13358,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13418,7 +13436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
         <v>0.73</v>
@@ -13958,7 +13976,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14036,7 +14054,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>1.19</v>
@@ -14242,7 +14260,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>1.06</v>
@@ -14370,7 +14388,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14451,7 +14469,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.05</v>
@@ -14576,7 +14594,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14657,7 +14675,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
         <v>2.12</v>
@@ -14782,7 +14800,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14863,7 +14881,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR65">
         <v>1.19</v>
@@ -15066,7 +15084,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -15194,7 +15212,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15606,7 +15624,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15687,7 +15705,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
         <v>1.73</v>
@@ -15812,7 +15830,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q70">
         <v>2.4</v>
@@ -15890,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -16018,7 +16036,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16096,7 +16114,7 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71">
         <v>1.19</v>
@@ -16224,7 +16242,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q72">
         <v>3.75</v>
@@ -16508,7 +16526,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1.19</v>
@@ -16717,7 +16735,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR74">
         <v>1.75</v>
@@ -17048,7 +17066,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>4.33</v>
@@ -17129,7 +17147,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -17335,7 +17353,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.18</v>
@@ -17538,7 +17556,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>1.19</v>
@@ -17950,7 +17968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ80">
         <v>1.06</v>
@@ -18078,7 +18096,7 @@
         <v>103</v>
       </c>
       <c r="P81" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q81">
         <v>2.3</v>
@@ -18159,7 +18177,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18571,7 +18589,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18774,10 +18792,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR84">
         <v>2.1</v>
@@ -18902,7 +18920,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
@@ -18980,7 +18998,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ85">
         <v>2.47</v>
@@ -19598,7 +19616,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ88">
         <v>0.75</v>
@@ -19726,7 +19744,7 @@
         <v>152</v>
       </c>
       <c r="P89" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19807,7 +19825,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89">
         <v>1.96</v>
@@ -20013,7 +20031,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -20756,7 +20774,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20834,7 +20852,7 @@
         <v>0.8</v>
       </c>
       <c r="AP94">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>0.75</v>
@@ -20962,7 +20980,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21249,7 +21267,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ96">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR96">
         <v>1.19</v>
@@ -21452,7 +21470,7 @@
         <v>1.4</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97">
         <v>1.69</v>
@@ -21661,7 +21679,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ98">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR98">
         <v>1.32</v>
@@ -21992,7 +22010,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22276,7 +22294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
         <v>1.94</v>
@@ -22482,10 +22500,10 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR102">
         <v>1.08</v>
@@ -22897,7 +22915,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
         <v>1.33</v>
@@ -23022,7 +23040,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -23306,7 +23324,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
         <v>0.73</v>
@@ -23434,7 +23452,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q107">
         <v>1.91</v>
@@ -23640,7 +23658,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23846,7 +23864,7 @@
         <v>145</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -24258,7 +24276,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24670,7 +24688,7 @@
         <v>144</v>
       </c>
       <c r="P113" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24876,7 +24894,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q114">
         <v>2.5</v>
@@ -25082,7 +25100,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25288,7 +25306,7 @@
         <v>99</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25369,7 +25387,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.45</v>
@@ -25575,7 +25593,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117">
         <v>1.5</v>
@@ -25700,7 +25718,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q118">
         <v>2.25</v>
@@ -25778,7 +25796,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
         <v>1.47</v>
@@ -26112,7 +26130,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26190,7 +26208,7 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>2.47</v>
@@ -26396,10 +26414,10 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26602,10 +26620,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122">
         <v>1.74</v>
@@ -26730,7 +26748,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26808,10 +26826,10 @@
         <v>0.33</v>
       </c>
       <c r="AP123">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -27223,7 +27241,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ125">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR125">
         <v>1.58</v>
@@ -27554,7 +27572,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27632,10 +27650,10 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR127">
         <v>1.72</v>
@@ -27966,7 +27984,7 @@
         <v>159</v>
       </c>
       <c r="P129" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -28172,7 +28190,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28253,7 +28271,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR130">
         <v>1.83</v>
@@ -28378,7 +28396,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28996,7 +29014,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29074,7 +29092,7 @@
         <v>1.43</v>
       </c>
       <c r="AP134">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ134">
         <v>1.69</v>
@@ -29408,7 +29426,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29692,7 +29710,7 @@
         <v>0.57</v>
       </c>
       <c r="AP137">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ137">
         <v>1.47</v>
@@ -29820,7 +29838,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>5</v>
@@ -29898,7 +29916,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
         <v>1.44</v>
@@ -30104,7 +30122,7 @@
         <v>1.38</v>
       </c>
       <c r="AP139">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ139">
         <v>1.19</v>
@@ -30232,7 +30250,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30438,7 +30456,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>3.2</v>
@@ -30519,7 +30537,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
         <v>1.22</v>
@@ -30644,7 +30662,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30722,10 +30740,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.06</v>
@@ -30928,10 +30946,10 @@
         <v>0.5</v>
       </c>
       <c r="AP143">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR143">
         <v>1.39</v>
@@ -31137,7 +31155,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ144">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31546,10 +31564,10 @@
         <v>0.43</v>
       </c>
       <c r="AP146">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ146">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR146">
         <v>1.73</v>
@@ -31880,7 +31898,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31961,7 +31979,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ148">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR148">
         <v>1.43</v>
@@ -32373,7 +32391,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR150">
         <v>1.67</v>
@@ -32498,7 +32516,7 @@
         <v>187</v>
       </c>
       <c r="P151" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q151">
         <v>4.33</v>
@@ -32576,7 +32594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
         <v>1.94</v>
@@ -33403,7 +33421,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.51</v>
@@ -33528,7 +33546,7 @@
         <v>154</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33606,7 +33624,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
         <v>1.19</v>
@@ -34021,7 +34039,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ158">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR158">
         <v>1.45</v>
@@ -34224,7 +34242,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ159">
         <v>1.5</v>
@@ -34430,10 +34448,10 @@
         <v>1.25</v>
       </c>
       <c r="AP160">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ160">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR160">
         <v>1.7</v>
@@ -34558,7 +34576,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34639,7 +34657,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ161">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR161">
         <v>1.39</v>
@@ -34842,7 +34860,7 @@
         <v>0.88</v>
       </c>
       <c r="AP162">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ162">
         <v>1.47</v>
@@ -34970,7 +34988,7 @@
         <v>90</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35048,7 +35066,7 @@
         <v>2.25</v>
       </c>
       <c r="AP163">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ163">
         <v>2.47</v>
@@ -35176,7 +35194,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35257,7 +35275,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR164">
         <v>1.64</v>
@@ -35588,7 +35606,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36000,7 +36018,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36287,7 +36305,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
         <v>1.42</v>
@@ -36493,7 +36511,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ170">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR170">
         <v>1.58</v>
@@ -36696,7 +36714,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
         <v>1.19</v>
@@ -36824,7 +36842,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q172">
         <v>1.91</v>
@@ -37030,7 +37048,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37317,7 +37335,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR174">
         <v>1.63</v>
@@ -37726,7 +37744,7 @@
         <v>0.9</v>
       </c>
       <c r="AP176">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ176">
         <v>0.75</v>
@@ -37854,7 +37872,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -38141,7 +38159,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ178">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR178">
         <v>1.56</v>
@@ -38266,7 +38284,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38344,10 +38362,10 @@
         <v>0.33</v>
       </c>
       <c r="AP179">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR179">
         <v>1.14</v>
@@ -38550,7 +38568,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ180">
         <v>1.44</v>
@@ -39090,7 +39108,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>2.2</v>
@@ -39168,10 +39186,10 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.71</v>
@@ -39580,10 +39598,10 @@
         <v>1.11</v>
       </c>
       <c r="AP185">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ185">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR185">
         <v>1.42</v>
@@ -39708,7 +39726,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39786,10 +39804,10 @@
         <v>0.78</v>
       </c>
       <c r="AP186">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR186">
         <v>1.47</v>
@@ -40120,7 +40138,7 @@
         <v>98</v>
       </c>
       <c r="P188" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>4.33</v>
@@ -40326,7 +40344,7 @@
         <v>152</v>
       </c>
       <c r="P189" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q189">
         <v>3.6</v>
@@ -40532,7 +40550,7 @@
         <v>211</v>
       </c>
       <c r="P190" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -41150,7 +41168,7 @@
         <v>90</v>
       </c>
       <c r="P193" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q193">
         <v>5.5</v>
@@ -41356,7 +41374,7 @@
         <v>144</v>
       </c>
       <c r="P194" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41437,7 +41455,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ194">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41562,7 +41580,7 @@
         <v>213</v>
       </c>
       <c r="P195" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q195">
         <v>2.05</v>
@@ -41640,7 +41658,7 @@
         <v>1.09</v>
       </c>
       <c r="AP195">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ195">
         <v>1.5</v>
@@ -41768,7 +41786,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -41849,7 +41867,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ196">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR196">
         <v>1.58</v>
@@ -42180,7 +42198,7 @@
         <v>216</v>
       </c>
       <c r="P198" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q198">
         <v>3.4</v>
@@ -42464,7 +42482,7 @@
         <v>0.7</v>
       </c>
       <c r="AP199">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ199">
         <v>0.73</v>
@@ -42592,7 +42610,7 @@
         <v>94</v>
       </c>
       <c r="P200" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q200">
         <v>4.75</v>
@@ -42670,7 +42688,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ200">
         <v>1.47</v>
@@ -42879,7 +42897,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ201">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR201">
         <v>1.24</v>
@@ -43004,7 +43022,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>3.5</v>
@@ -43210,7 +43228,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43288,7 +43306,7 @@
         <v>1.73</v>
       </c>
       <c r="AP203">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ203">
         <v>1.94</v>
@@ -43416,7 +43434,7 @@
         <v>120</v>
       </c>
       <c r="P204" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q204">
         <v>3.75</v>
@@ -43494,7 +43512,7 @@
         <v>1.27</v>
       </c>
       <c r="AP204">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ204">
         <v>1.19</v>
@@ -43622,7 +43640,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -43700,7 +43718,7 @@
         <v>1.09</v>
       </c>
       <c r="AP205">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ205">
         <v>1.19</v>
@@ -43909,7 +43927,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ206">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR206">
         <v>1.41</v>
@@ -44115,7 +44133,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ207">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR207">
         <v>1.76</v>
@@ -44321,7 +44339,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ208">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR208">
         <v>1.57</v>
@@ -44524,7 +44542,7 @@
         <v>2.45</v>
       </c>
       <c r="AP209">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ209">
         <v>2.47</v>
@@ -44858,7 +44876,7 @@
         <v>181</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q211">
         <v>4.5</v>
@@ -45064,7 +45082,7 @@
         <v>222</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45142,7 +45160,7 @@
         <v>1.36</v>
       </c>
       <c r="AP212">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ212">
         <v>1.44</v>
@@ -45348,7 +45366,7 @@
         <v>0.83</v>
       </c>
       <c r="AP213">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ213">
         <v>0.75</v>
@@ -45476,7 +45494,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45557,7 +45575,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
         <v>1.62</v>
@@ -45888,7 +45906,7 @@
         <v>183</v>
       </c>
       <c r="P216" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -45969,7 +45987,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR216">
         <v>1.62</v>
@@ -46094,7 +46112,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46381,7 +46399,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ218">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR218">
         <v>1.46</v>
@@ -46506,7 +46524,7 @@
         <v>90</v>
       </c>
       <c r="P219" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46790,7 +46808,7 @@
         <v>1.75</v>
       </c>
       <c r="AP220">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ220">
         <v>1.69</v>
@@ -46918,7 +46936,7 @@
         <v>227</v>
       </c>
       <c r="P221" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q221">
         <v>1.91</v>
@@ -47202,7 +47220,7 @@
         <v>1.25</v>
       </c>
       <c r="AP222">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ222">
         <v>1.5</v>
@@ -47614,10 +47632,10 @@
         <v>0.83</v>
       </c>
       <c r="AP224">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ224">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR224">
         <v>1.18</v>
@@ -47742,7 +47760,7 @@
         <v>230</v>
       </c>
       <c r="P225" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47823,7 +47841,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ225">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR225">
         <v>1.7</v>
@@ -48029,7 +48047,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ226">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR226">
         <v>1.6</v>
@@ -48154,7 +48172,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q227">
         <v>3.25</v>
@@ -48232,7 +48250,7 @@
         <v>1.33</v>
       </c>
       <c r="AP227">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
         <v>1.47</v>
@@ -48360,7 +48378,7 @@
         <v>233</v>
       </c>
       <c r="P228" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48441,7 +48459,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ228">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR228">
         <v>1.4</v>
@@ -48566,7 +48584,7 @@
         <v>234</v>
       </c>
       <c r="P229" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q229">
         <v>2.75</v>
@@ -48644,7 +48662,7 @@
         <v>1.25</v>
       </c>
       <c r="AP229">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ229">
         <v>1.44</v>
@@ -48772,7 +48790,7 @@
         <v>130</v>
       </c>
       <c r="P230" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q230">
         <v>3.4</v>
@@ -48850,7 +48868,7 @@
         <v>1.15</v>
       </c>
       <c r="AP230">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ230">
         <v>1.19</v>
@@ -48978,7 +48996,7 @@
         <v>235</v>
       </c>
       <c r="P231" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49056,10 +49074,10 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ231">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR231">
         <v>1.68</v>
@@ -49184,7 +49202,7 @@
         <v>236</v>
       </c>
       <c r="P232" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q232">
         <v>3.4</v>
@@ -49802,7 +49820,7 @@
         <v>239</v>
       </c>
       <c r="P235" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -50008,7 +50026,7 @@
         <v>240</v>
       </c>
       <c r="P236" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q236">
         <v>2.75</v>
@@ -50214,7 +50232,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50292,7 +50310,7 @@
         <v>1.92</v>
       </c>
       <c r="AP237">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ237">
         <v>1.94</v>
@@ -50420,7 +50438,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -50626,7 +50644,7 @@
         <v>90</v>
       </c>
       <c r="P239" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -50832,7 +50850,7 @@
         <v>90</v>
       </c>
       <c r="P240" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>3.25</v>
@@ -50910,10 +50928,10 @@
         <v>1.08</v>
       </c>
       <c r="AP240">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ240">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR240">
         <v>1.43</v>
@@ -51038,7 +51056,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51244,7 +51262,7 @@
         <v>169</v>
       </c>
       <c r="P242" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51325,7 +51343,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ242">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR242">
         <v>1.48</v>
@@ -51531,7 +51549,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ243">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR243">
         <v>1.31</v>
@@ -51656,7 +51674,7 @@
         <v>90</v>
       </c>
       <c r="P244" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51862,7 +51880,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -52068,7 +52086,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q246">
         <v>2.2</v>
@@ -52146,7 +52164,7 @@
         <v>0.71</v>
       </c>
       <c r="AP246">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ246">
         <v>0.75</v>
@@ -52355,7 +52373,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ247">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR247">
         <v>1.75</v>
@@ -52480,7 +52498,7 @@
         <v>247</v>
       </c>
       <c r="P248" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q248">
         <v>2.2</v>
@@ -52558,7 +52576,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ248">
         <v>1.06</v>
@@ -52970,10 +52988,10 @@
         <v>1.08</v>
       </c>
       <c r="AP250">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.45</v>
@@ -53179,7 +53197,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ251">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR251">
         <v>1.64</v>
@@ -53382,10 +53400,10 @@
         <v>1.15</v>
       </c>
       <c r="AP252">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ252">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR252">
         <v>1.74</v>
@@ -53510,7 +53528,7 @@
         <v>249</v>
       </c>
       <c r="P253" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q253">
         <v>3.75</v>
@@ -53794,7 +53812,7 @@
         <v>1.36</v>
       </c>
       <c r="AP254">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ254">
         <v>1.19</v>
@@ -53922,7 +53940,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q255">
         <v>3.25</v>
@@ -54128,7 +54146,7 @@
         <v>252</v>
       </c>
       <c r="P256" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54334,7 +54352,7 @@
         <v>90</v>
       </c>
       <c r="P257" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q257">
         <v>3.25</v>
@@ -54412,10 +54430,10 @@
         <v>1.23</v>
       </c>
       <c r="AP257">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ257">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR257">
         <v>1.42</v>
@@ -54621,7 +54639,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ258">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR258">
         <v>1.31</v>
@@ -54746,7 +54764,7 @@
         <v>254</v>
       </c>
       <c r="P259" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q259">
         <v>2.88</v>
@@ -55033,7 +55051,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ260">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR260">
         <v>1.45</v>
@@ -55158,7 +55176,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55239,7 +55257,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ261">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR261">
         <v>1.4</v>
@@ -55442,10 +55460,10 @@
         <v>0.79</v>
       </c>
       <c r="AP262">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ262">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR262">
         <v>1.7</v>
@@ -55570,7 +55588,7 @@
         <v>256</v>
       </c>
       <c r="P263" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55651,7 +55669,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ263">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR263">
         <v>1.49</v>
@@ -55857,7 +55875,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ264">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR264">
         <v>1.69</v>
@@ -55982,7 +56000,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q265">
         <v>2.88</v>
@@ -56060,7 +56078,7 @@
         <v>0.93</v>
       </c>
       <c r="AP265">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ265">
         <v>1.06</v>
@@ -56188,7 +56206,7 @@
         <v>90</v>
       </c>
       <c r="P266" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56266,7 +56284,7 @@
         <v>2</v>
       </c>
       <c r="AP266">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ266">
         <v>1.94</v>
@@ -56394,7 +56412,7 @@
         <v>257</v>
       </c>
       <c r="P267" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q267">
         <v>3.5</v>
@@ -56472,7 +56490,7 @@
         <v>0.71</v>
       </c>
       <c r="AP267">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ267">
         <v>0.73</v>
@@ -56806,7 +56824,7 @@
         <v>259</v>
       </c>
       <c r="P269" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q269">
         <v>6</v>
@@ -57012,7 +57030,7 @@
         <v>260</v>
       </c>
       <c r="P270" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q270">
         <v>2.75</v>
@@ -57296,7 +57314,7 @@
         <v>1.14</v>
       </c>
       <c r="AP271">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ271">
         <v>1.19</v>
@@ -57424,7 +57442,7 @@
         <v>116</v>
       </c>
       <c r="P272" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q272">
         <v>2.5</v>
@@ -57505,7 +57523,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ272">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR272">
         <v>1.64</v>
@@ -57630,7 +57648,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q273">
         <v>1.83</v>
@@ -57836,7 +57854,7 @@
         <v>152</v>
       </c>
       <c r="P274" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q274">
         <v>4.75</v>
@@ -57914,7 +57932,7 @@
         <v>1.07</v>
       </c>
       <c r="AP274">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ274">
         <v>1.19</v>
@@ -58042,7 +58060,7 @@
         <v>88</v>
       </c>
       <c r="P275" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q275">
         <v>3.75</v>
@@ -58248,7 +58266,7 @@
         <v>124</v>
       </c>
       <c r="P276" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q276">
         <v>3.25</v>
@@ -58660,7 +58678,7 @@
         <v>264</v>
       </c>
       <c r="P278" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58866,7 +58884,7 @@
         <v>265</v>
       </c>
       <c r="P279" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q279">
         <v>3</v>
@@ -59229,6 +59247,1242 @@
       </c>
       <c r="BP280">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6717392</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>81</v>
+      </c>
+      <c r="H281" t="s">
+        <v>74</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>3</v>
+      </c>
+      <c r="O281" t="s">
+        <v>223</v>
+      </c>
+      <c r="P281" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q281">
+        <v>2.7</v>
+      </c>
+      <c r="R281">
+        <v>2.25</v>
+      </c>
+      <c r="S281">
+        <v>3.75</v>
+      </c>
+      <c r="T281">
+        <v>1.33</v>
+      </c>
+      <c r="U281">
+        <v>3.3</v>
+      </c>
+      <c r="V281">
+        <v>2.6</v>
+      </c>
+      <c r="W281">
+        <v>1.5</v>
+      </c>
+      <c r="X281">
+        <v>6</v>
+      </c>
+      <c r="Y281">
+        <v>1.12</v>
+      </c>
+      <c r="Z281">
+        <v>2.07</v>
+      </c>
+      <c r="AA281">
+        <v>3.4</v>
+      </c>
+      <c r="AB281">
+        <v>3.1</v>
+      </c>
+      <c r="AC281">
+        <v>1.03</v>
+      </c>
+      <c r="AD281">
+        <v>15</v>
+      </c>
+      <c r="AE281">
+        <v>1.24</v>
+      </c>
+      <c r="AF281">
+        <v>4.2</v>
+      </c>
+      <c r="AG281">
+        <v>1.7</v>
+      </c>
+      <c r="AH281">
+        <v>2.1</v>
+      </c>
+      <c r="AI281">
+        <v>1.62</v>
+      </c>
+      <c r="AJ281">
+        <v>2.3</v>
+      </c>
+      <c r="AK281">
+        <v>1.36</v>
+      </c>
+      <c r="AL281">
+        <v>1.24</v>
+      </c>
+      <c r="AM281">
+        <v>1.75</v>
+      </c>
+      <c r="AN281">
+        <v>1.07</v>
+      </c>
+      <c r="AO281">
+        <v>1.33</v>
+      </c>
+      <c r="AP281">
+        <v>1</v>
+      </c>
+      <c r="AQ281">
+        <v>1.44</v>
+      </c>
+      <c r="AR281">
+        <v>1.41</v>
+      </c>
+      <c r="AS281">
+        <v>1.31</v>
+      </c>
+      <c r="AT281">
+        <v>2.72</v>
+      </c>
+      <c r="AU281">
+        <v>4</v>
+      </c>
+      <c r="AV281">
+        <v>3</v>
+      </c>
+      <c r="AW281">
+        <v>5</v>
+      </c>
+      <c r="AX281">
+        <v>1</v>
+      </c>
+      <c r="AY281">
+        <v>9</v>
+      </c>
+      <c r="AZ281">
+        <v>4</v>
+      </c>
+      <c r="BA281">
+        <v>8</v>
+      </c>
+      <c r="BB281">
+        <v>0</v>
+      </c>
+      <c r="BC281">
+        <v>8</v>
+      </c>
+      <c r="BD281">
+        <v>1.7</v>
+      </c>
+      <c r="BE281">
+        <v>7.5</v>
+      </c>
+      <c r="BF281">
+        <v>2.5</v>
+      </c>
+      <c r="BG281">
+        <v>1.27</v>
+      </c>
+      <c r="BH281">
+        <v>3.15</v>
+      </c>
+      <c r="BI281">
+        <v>1.5</v>
+      </c>
+      <c r="BJ281">
+        <v>2.3</v>
+      </c>
+      <c r="BK281">
+        <v>1.88</v>
+      </c>
+      <c r="BL281">
+        <v>1.81</v>
+      </c>
+      <c r="BM281">
+        <v>2.38</v>
+      </c>
+      <c r="BN281">
+        <v>1.48</v>
+      </c>
+      <c r="BO281">
+        <v>3.15</v>
+      </c>
+      <c r="BP281">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6717397</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45415.66666666666</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>87</v>
+      </c>
+      <c r="H282" t="s">
+        <v>83</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>267</v>
+      </c>
+      <c r="P282" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q282">
+        <v>1.92</v>
+      </c>
+      <c r="R282">
+        <v>2.5</v>
+      </c>
+      <c r="S282">
+        <v>6.5</v>
+      </c>
+      <c r="T282">
+        <v>1.32</v>
+      </c>
+      <c r="U282">
+        <v>3.5</v>
+      </c>
+      <c r="V282">
+        <v>2.45</v>
+      </c>
+      <c r="W282">
+        <v>1.53</v>
+      </c>
+      <c r="X282">
+        <v>6</v>
+      </c>
+      <c r="Y282">
+        <v>1.13</v>
+      </c>
+      <c r="Z282">
+        <v>1.39</v>
+      </c>
+      <c r="AA282">
+        <v>4.3</v>
+      </c>
+      <c r="AB282">
+        <v>6.6</v>
+      </c>
+      <c r="AC282">
+        <v>1.03</v>
+      </c>
+      <c r="AD282">
+        <v>15</v>
+      </c>
+      <c r="AE282">
+        <v>1.2</v>
+      </c>
+      <c r="AF282">
+        <v>4.5</v>
+      </c>
+      <c r="AG282">
+        <v>1.7</v>
+      </c>
+      <c r="AH282">
+        <v>2.1</v>
+      </c>
+      <c r="AI282">
+        <v>1.87</v>
+      </c>
+      <c r="AJ282">
+        <v>1.92</v>
+      </c>
+      <c r="AK282">
+        <v>1.09</v>
+      </c>
+      <c r="AL282">
+        <v>1.15</v>
+      </c>
+      <c r="AM282">
+        <v>2.85</v>
+      </c>
+      <c r="AN282">
+        <v>1.8</v>
+      </c>
+      <c r="AO282">
+        <v>0.87</v>
+      </c>
+      <c r="AP282">
+        <v>1.88</v>
+      </c>
+      <c r="AQ282">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR282">
+        <v>1.7</v>
+      </c>
+      <c r="AS282">
+        <v>1.15</v>
+      </c>
+      <c r="AT282">
+        <v>2.85</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>9</v>
+      </c>
+      <c r="AW282">
+        <v>10</v>
+      </c>
+      <c r="AX282">
+        <v>2</v>
+      </c>
+      <c r="AY282">
+        <v>17</v>
+      </c>
+      <c r="AZ282">
+        <v>11</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>4</v>
+      </c>
+      <c r="BC282">
+        <v>8</v>
+      </c>
+      <c r="BD282">
+        <v>1.3</v>
+      </c>
+      <c r="BE282">
+        <v>9.5</v>
+      </c>
+      <c r="BF282">
+        <v>4.6</v>
+      </c>
+      <c r="BG282">
+        <v>1.26</v>
+      </c>
+      <c r="BH282">
+        <v>3.2</v>
+      </c>
+      <c r="BI282">
+        <v>1.49</v>
+      </c>
+      <c r="BJ282">
+        <v>2.35</v>
+      </c>
+      <c r="BK282">
+        <v>1.85</v>
+      </c>
+      <c r="BL282">
+        <v>1.84</v>
+      </c>
+      <c r="BM282">
+        <v>2.33</v>
+      </c>
+      <c r="BN282">
+        <v>1.5</v>
+      </c>
+      <c r="BO282">
+        <v>3.05</v>
+      </c>
+      <c r="BP282">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6717398</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>85</v>
+      </c>
+      <c r="H283" t="s">
+        <v>78</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>268</v>
+      </c>
+      <c r="P283" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q283">
+        <v>3.1</v>
+      </c>
+      <c r="R283">
+        <v>2.05</v>
+      </c>
+      <c r="S283">
+        <v>3.75</v>
+      </c>
+      <c r="T283">
+        <v>1.52</v>
+      </c>
+      <c r="U283">
+        <v>2.55</v>
+      </c>
+      <c r="V283">
+        <v>3.4</v>
+      </c>
+      <c r="W283">
+        <v>1.3</v>
+      </c>
+      <c r="X283">
+        <v>9.5</v>
+      </c>
+      <c r="Y283">
+        <v>1.05</v>
+      </c>
+      <c r="Z283">
+        <v>2.35</v>
+      </c>
+      <c r="AA283">
+        <v>3.1</v>
+      </c>
+      <c r="AB283">
+        <v>3.2</v>
+      </c>
+      <c r="AC283">
+        <v>1.08</v>
+      </c>
+      <c r="AD283">
+        <v>8.5</v>
+      </c>
+      <c r="AE283">
+        <v>1.44</v>
+      </c>
+      <c r="AF283">
+        <v>2.8</v>
+      </c>
+      <c r="AG283">
+        <v>2.25</v>
+      </c>
+      <c r="AH283">
+        <v>1.57</v>
+      </c>
+      <c r="AI283">
+        <v>1.98</v>
+      </c>
+      <c r="AJ283">
+        <v>1.8</v>
+      </c>
+      <c r="AK283">
+        <v>1.36</v>
+      </c>
+      <c r="AL283">
+        <v>1.3</v>
+      </c>
+      <c r="AM283">
+        <v>1.63</v>
+      </c>
+      <c r="AN283">
+        <v>1.13</v>
+      </c>
+      <c r="AO283">
+        <v>1</v>
+      </c>
+      <c r="AP283">
+        <v>1.25</v>
+      </c>
+      <c r="AQ283">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR283">
+        <v>1.42</v>
+      </c>
+      <c r="AS283">
+        <v>1.1</v>
+      </c>
+      <c r="AT283">
+        <v>2.52</v>
+      </c>
+      <c r="AU283">
+        <v>8</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>4</v>
+      </c>
+      <c r="AX283">
+        <v>2</v>
+      </c>
+      <c r="AY283">
+        <v>12</v>
+      </c>
+      <c r="AZ283">
+        <v>6</v>
+      </c>
+      <c r="BA283">
+        <v>3</v>
+      </c>
+      <c r="BB283">
+        <v>2</v>
+      </c>
+      <c r="BC283">
+        <v>5</v>
+      </c>
+      <c r="BD283">
+        <v>1.79</v>
+      </c>
+      <c r="BE283">
+        <v>7.5</v>
+      </c>
+      <c r="BF283">
+        <v>2.35</v>
+      </c>
+      <c r="BG283">
+        <v>1.38</v>
+      </c>
+      <c r="BH283">
+        <v>2.65</v>
+      </c>
+      <c r="BI283">
+        <v>1.68</v>
+      </c>
+      <c r="BJ283">
+        <v>2.02</v>
+      </c>
+      <c r="BK283">
+        <v>2.12</v>
+      </c>
+      <c r="BL283">
+        <v>1.61</v>
+      </c>
+      <c r="BM283">
+        <v>2.75</v>
+      </c>
+      <c r="BN283">
+        <v>1.35</v>
+      </c>
+      <c r="BO283">
+        <v>3.75</v>
+      </c>
+      <c r="BP283">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6717393</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45416.5</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>86</v>
+      </c>
+      <c r="H284" t="s">
+        <v>75</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>3</v>
+      </c>
+      <c r="L284">
+        <v>4</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>5</v>
+      </c>
+      <c r="O284" t="s">
+        <v>269</v>
+      </c>
+      <c r="P284" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q284">
+        <v>1.72</v>
+      </c>
+      <c r="R284">
+        <v>2.9</v>
+      </c>
+      <c r="S284">
+        <v>6.5</v>
+      </c>
+      <c r="T284">
+        <v>1.22</v>
+      </c>
+      <c r="U284">
+        <v>4.33</v>
+      </c>
+      <c r="V284">
+        <v>2</v>
+      </c>
+      <c r="W284">
+        <v>1.78</v>
+      </c>
+      <c r="X284">
+        <v>4.2</v>
+      </c>
+      <c r="Y284">
+        <v>1.22</v>
+      </c>
+      <c r="Z284">
+        <v>1.3</v>
+      </c>
+      <c r="AA284">
+        <v>5.5</v>
+      </c>
+      <c r="AB284">
+        <v>9.5</v>
+      </c>
+      <c r="AC284">
+        <v>1.02</v>
+      </c>
+      <c r="AD284">
+        <v>26</v>
+      </c>
+      <c r="AE284">
+        <v>1.12</v>
+      </c>
+      <c r="AF284">
+        <v>6.5</v>
+      </c>
+      <c r="AG284">
+        <v>1.36</v>
+      </c>
+      <c r="AH284">
+        <v>2.81</v>
+      </c>
+      <c r="AI284">
+        <v>1.66</v>
+      </c>
+      <c r="AJ284">
+        <v>2.2</v>
+      </c>
+      <c r="AK284">
+        <v>1.04</v>
+      </c>
+      <c r="AL284">
+        <v>1.11</v>
+      </c>
+      <c r="AM284">
+        <v>3.5</v>
+      </c>
+      <c r="AN284">
+        <v>1.8</v>
+      </c>
+      <c r="AO284">
+        <v>0.73</v>
+      </c>
+      <c r="AP284">
+        <v>1.88</v>
+      </c>
+      <c r="AQ284">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR284">
+        <v>1.73</v>
+      </c>
+      <c r="AS284">
+        <v>1.17</v>
+      </c>
+      <c r="AT284">
+        <v>2.9</v>
+      </c>
+      <c r="AU284">
+        <v>5</v>
+      </c>
+      <c r="AV284">
+        <v>0</v>
+      </c>
+      <c r="AW284">
+        <v>4</v>
+      </c>
+      <c r="AX284">
+        <v>7</v>
+      </c>
+      <c r="AY284">
+        <v>9</v>
+      </c>
+      <c r="AZ284">
+        <v>7</v>
+      </c>
+      <c r="BA284">
+        <v>4</v>
+      </c>
+      <c r="BB284">
+        <v>4</v>
+      </c>
+      <c r="BC284">
+        <v>8</v>
+      </c>
+      <c r="BD284">
+        <v>1.28</v>
+      </c>
+      <c r="BE284">
+        <v>10</v>
+      </c>
+      <c r="BF284">
+        <v>4.75</v>
+      </c>
+      <c r="BG284">
+        <v>1.2</v>
+      </c>
+      <c r="BH284">
+        <v>3.65</v>
+      </c>
+      <c r="BI284">
+        <v>1.38</v>
+      </c>
+      <c r="BJ284">
+        <v>2.63</v>
+      </c>
+      <c r="BK284">
+        <v>1.68</v>
+      </c>
+      <c r="BL284">
+        <v>2.02</v>
+      </c>
+      <c r="BM284">
+        <v>2.08</v>
+      </c>
+      <c r="BN284">
+        <v>1.63</v>
+      </c>
+      <c r="BO284">
+        <v>2.7</v>
+      </c>
+      <c r="BP284">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6717399</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45416.58333333334</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>79</v>
+      </c>
+      <c r="H285" t="s">
+        <v>77</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>3</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>3</v>
+      </c>
+      <c r="N285">
+        <v>5</v>
+      </c>
+      <c r="O285" t="s">
+        <v>270</v>
+      </c>
+      <c r="P285" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q285">
+        <v>4</v>
+      </c>
+      <c r="R285">
+        <v>2.2</v>
+      </c>
+      <c r="S285">
+        <v>2.7</v>
+      </c>
+      <c r="T285">
+        <v>1.38</v>
+      </c>
+      <c r="U285">
+        <v>3</v>
+      </c>
+      <c r="V285">
+        <v>2.8</v>
+      </c>
+      <c r="W285">
+        <v>1.42</v>
+      </c>
+      <c r="X285">
+        <v>7</v>
+      </c>
+      <c r="Y285">
+        <v>1.09</v>
+      </c>
+      <c r="Z285">
+        <v>3.6</v>
+      </c>
+      <c r="AA285">
+        <v>3.7</v>
+      </c>
+      <c r="AB285">
+        <v>1.94</v>
+      </c>
+      <c r="AC285">
+        <v>1.05</v>
+      </c>
+      <c r="AD285">
+        <v>12</v>
+      </c>
+      <c r="AE285">
+        <v>1.3</v>
+      </c>
+      <c r="AF285">
+        <v>3.6</v>
+      </c>
+      <c r="AG285">
+        <v>1.83</v>
+      </c>
+      <c r="AH285">
+        <v>1.97</v>
+      </c>
+      <c r="AI285">
+        <v>1.72</v>
+      </c>
+      <c r="AJ285">
+        <v>2.1</v>
+      </c>
+      <c r="AK285">
+        <v>1.83</v>
+      </c>
+      <c r="AL285">
+        <v>1.25</v>
+      </c>
+      <c r="AM285">
+        <v>1.3</v>
+      </c>
+      <c r="AN285">
+        <v>0.8</v>
+      </c>
+      <c r="AO285">
+        <v>1.2</v>
+      </c>
+      <c r="AP285">
+        <v>0.75</v>
+      </c>
+      <c r="AQ285">
+        <v>1.31</v>
+      </c>
+      <c r="AR285">
+        <v>1.17</v>
+      </c>
+      <c r="AS285">
+        <v>1.33</v>
+      </c>
+      <c r="AT285">
+        <v>2.5</v>
+      </c>
+      <c r="AU285">
+        <v>2</v>
+      </c>
+      <c r="AV285">
+        <v>5</v>
+      </c>
+      <c r="AW285">
+        <v>1</v>
+      </c>
+      <c r="AX285">
+        <v>4</v>
+      </c>
+      <c r="AY285">
+        <v>3</v>
+      </c>
+      <c r="AZ285">
+        <v>9</v>
+      </c>
+      <c r="BA285">
+        <v>1</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>4</v>
+      </c>
+      <c r="BD285">
+        <v>2.4</v>
+      </c>
+      <c r="BE285">
+        <v>7.5</v>
+      </c>
+      <c r="BF285">
+        <v>1.77</v>
+      </c>
+      <c r="BG285">
+        <v>1.3</v>
+      </c>
+      <c r="BH285">
+        <v>2.95</v>
+      </c>
+      <c r="BI285">
+        <v>1.58</v>
+      </c>
+      <c r="BJ285">
+        <v>2.18</v>
+      </c>
+      <c r="BK285">
+        <v>1.98</v>
+      </c>
+      <c r="BL285">
+        <v>1.72</v>
+      </c>
+      <c r="BM285">
+        <v>2.5</v>
+      </c>
+      <c r="BN285">
+        <v>1.42</v>
+      </c>
+      <c r="BO285">
+        <v>3.4</v>
+      </c>
+      <c r="BP285">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6717400</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45416.66666666666</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>73</v>
+      </c>
+      <c r="H286" t="s">
+        <v>76</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286" t="s">
+        <v>90</v>
+      </c>
+      <c r="P286" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q286">
+        <v>2.4</v>
+      </c>
+      <c r="R286">
+        <v>2.15</v>
+      </c>
+      <c r="S286">
+        <v>5</v>
+      </c>
+      <c r="T286">
+        <v>1.45</v>
+      </c>
+      <c r="U286">
+        <v>2.75</v>
+      </c>
+      <c r="V286">
+        <v>3.1</v>
+      </c>
+      <c r="W286">
+        <v>1.36</v>
+      </c>
+      <c r="X286">
+        <v>8.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.07</v>
+      </c>
+      <c r="Z286">
+        <v>1.71</v>
+      </c>
+      <c r="AA286">
+        <v>3.65</v>
+      </c>
+      <c r="AB286">
+        <v>4.9</v>
+      </c>
+      <c r="AC286">
+        <v>1.09</v>
+      </c>
+      <c r="AD286">
+        <v>10.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.38</v>
+      </c>
+      <c r="AF286">
+        <v>3.1</v>
+      </c>
+      <c r="AG286">
+        <v>2.08</v>
+      </c>
+      <c r="AH286">
+        <v>1.75</v>
+      </c>
+      <c r="AI286">
+        <v>2.1</v>
+      </c>
+      <c r="AJ286">
+        <v>1.82</v>
+      </c>
+      <c r="AK286">
+        <v>1.18</v>
+      </c>
+      <c r="AL286">
+        <v>1.24</v>
+      </c>
+      <c r="AM286">
+        <v>2.15</v>
+      </c>
+      <c r="AN286">
+        <v>1.93</v>
+      </c>
+      <c r="AO286">
+        <v>1.33</v>
+      </c>
+      <c r="AP286">
+        <v>1.88</v>
+      </c>
+      <c r="AQ286">
+        <v>1.31</v>
+      </c>
+      <c r="AR286">
+        <v>1.68</v>
+      </c>
+      <c r="AS286">
+        <v>1.15</v>
+      </c>
+      <c r="AT286">
+        <v>2.83</v>
+      </c>
+      <c r="AU286">
+        <v>3</v>
+      </c>
+      <c r="AV286">
+        <v>0</v>
+      </c>
+      <c r="AW286">
+        <v>3</v>
+      </c>
+      <c r="AX286">
+        <v>5</v>
+      </c>
+      <c r="AY286">
+        <v>6</v>
+      </c>
+      <c r="AZ286">
+        <v>5</v>
+      </c>
+      <c r="BA286">
+        <v>3</v>
+      </c>
+      <c r="BB286">
+        <v>0</v>
+      </c>
+      <c r="BC286">
+        <v>3</v>
+      </c>
+      <c r="BD286">
+        <v>1.49</v>
+      </c>
+      <c r="BE286">
+        <v>8</v>
+      </c>
+      <c r="BF286">
+        <v>3.2</v>
+      </c>
+      <c r="BG286">
+        <v>1.35</v>
+      </c>
+      <c r="BH286">
+        <v>2.75</v>
+      </c>
+      <c r="BI286">
+        <v>1.63</v>
+      </c>
+      <c r="BJ286">
+        <v>2.08</v>
+      </c>
+      <c r="BK286">
+        <v>2.06</v>
+      </c>
+      <c r="BL286">
+        <v>1.66</v>
+      </c>
+      <c r="BM286">
+        <v>2.65</v>
+      </c>
+      <c r="BN286">
+        <v>1.38</v>
+      </c>
+      <c r="BO286">
+        <v>3.55</v>
+      </c>
+      <c r="BP286">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -59389,10 +59389,10 @@
         <v>2.72</v>
       </c>
       <c r="AU281">
+        <v>6</v>
+      </c>
+      <c r="AV281">
         <v>4</v>
-      </c>
-      <c r="AV281">
-        <v>3</v>
       </c>
       <c r="AW281">
         <v>5</v>
@@ -59401,10 +59401,10 @@
         <v>1</v>
       </c>
       <c r="AY281">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ281">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA281">
         <v>8</v>
@@ -59598,19 +59598,19 @@
         <v>7</v>
       </c>
       <c r="AV282">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW282">
         <v>10</v>
       </c>
       <c r="AX282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY282">
         <v>17</v>
       </c>
       <c r="AZ282">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA282">
         <v>4</v>
@@ -60007,22 +60007,22 @@
         <v>2.9</v>
       </c>
       <c r="AU284">
+        <v>9</v>
+      </c>
+      <c r="AV284">
+        <v>2</v>
+      </c>
+      <c r="AW284">
         <v>5</v>
-      </c>
-      <c r="AV284">
-        <v>0</v>
-      </c>
-      <c r="AW284">
-        <v>4</v>
       </c>
       <c r="AX284">
         <v>7</v>
       </c>
       <c r="AY284">
+        <v>14</v>
+      </c>
+      <c r="AZ284">
         <v>9</v>
-      </c>
-      <c r="AZ284">
-        <v>7</v>
       </c>
       <c r="BA284">
         <v>4</v>
@@ -60213,31 +60213,31 @@
         <v>2.5</v>
       </c>
       <c r="AU285">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV285">
+        <v>10</v>
+      </c>
+      <c r="AW285">
+        <v>3</v>
+      </c>
+      <c r="AX285">
         <v>5</v>
       </c>
-      <c r="AW285">
-        <v>1</v>
-      </c>
-      <c r="AX285">
-        <v>4</v>
-      </c>
       <c r="AY285">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ285">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB285">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC285">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD285">
         <v>2.4</v>
@@ -60422,28 +60422,28 @@
         <v>3</v>
       </c>
       <c r="AV286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW286">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX286">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY286">
+        <v>8</v>
+      </c>
+      <c r="AZ286">
+        <v>8</v>
+      </c>
+      <c r="BA286">
         <v>6</v>
       </c>
-      <c r="AZ286">
-        <v>5</v>
-      </c>
-      <c r="BA286">
-        <v>3</v>
-      </c>
       <c r="BB286">
         <v>0</v>
       </c>
       <c r="BC286">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD286">
         <v>1.49</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['21', '37', '85']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['10']</t>
   </si>
   <si>
@@ -911,9 +914,6 @@
   </si>
   <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['45+2']</t>
   </si>
   <si>
     <t>['12', '16']</t>
@@ -1569,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP287"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ2">
         <v>1.19</v>
@@ -2034,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2115,7 +2115,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ3">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ5">
         <v>1.19</v>
@@ -2652,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2733,7 +2733,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3064,7 +3064,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3270,7 +3270,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q9">
         <v>1.91</v>
@@ -3682,7 +3682,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q11">
         <v>4.4</v>
@@ -3888,7 +3888,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4094,7 +4094,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -4506,7 +4506,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q15">
         <v>3.7</v>
@@ -4918,7 +4918,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q17">
         <v>3.16</v>
@@ -5536,7 +5536,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q20">
         <v>4.33</v>
@@ -5948,7 +5948,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6154,7 +6154,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q23">
         <v>1.95</v>
@@ -6235,7 +6235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>2.92</v>
@@ -6772,7 +6772,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6853,7 +6853,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR26">
         <v>1.54</v>
@@ -6978,7 +6978,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ28">
         <v>1.56</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ30">
         <v>1.31</v>
@@ -8008,7 +8008,7 @@
         <v>115</v>
       </c>
       <c r="P32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8626,7 +8626,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q35">
         <v>4.33</v>
@@ -8707,7 +8707,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ35">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
         <v>0.9399999999999999</v>
@@ -9038,7 +9038,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9244,7 +9244,7 @@
         <v>121</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q38">
         <v>1.95</v>
@@ -9450,7 +9450,7 @@
         <v>122</v>
       </c>
       <c r="P39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9862,7 +9862,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -10274,7 +10274,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q43">
         <v>2.5</v>
@@ -10480,7 +10480,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10973,7 +10973,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.62</v>
@@ -11098,7 +11098,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -11304,7 +11304,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11588,7 +11588,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ49">
         <v>1.56</v>
@@ -11716,7 +11716,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12128,7 +12128,7 @@
         <v>128</v>
       </c>
       <c r="P52" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12827,7 +12827,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -13854,7 +13854,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ60">
         <v>1.69</v>
@@ -15505,7 +15505,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -15914,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -16944,7 +16944,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -17072,7 +17072,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>4.33</v>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR78">
         <v>1.25</v>
@@ -19004,7 +19004,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ85">
         <v>2.47</v>
@@ -19625,7 +19625,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ88">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.07</v>
@@ -20861,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -21067,7 +21067,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ95">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -21682,7 +21682,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>1.31</v>
@@ -24154,7 +24154,7 @@
         <v>0.86</v>
       </c>
       <c r="AP110">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -24569,7 +24569,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR112">
         <v>1.32</v>
@@ -24981,7 +24981,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR114">
         <v>1.74</v>
@@ -26626,7 +26626,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
         <v>0.6899999999999999</v>
@@ -26754,7 +26754,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -27656,7 +27656,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ127">
         <v>0.9399999999999999</v>
@@ -28196,7 +28196,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28480,10 +28480,10 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ131">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28689,7 +28689,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR132">
         <v>1.32</v>
@@ -29844,7 +29844,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>5</v>
@@ -30131,7 +30131,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ139">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR139">
         <v>1.88</v>
@@ -31570,7 +31570,7 @@
         <v>0.43</v>
       </c>
       <c r="AP146">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ146">
         <v>0.8100000000000001</v>
@@ -31779,7 +31779,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR147">
         <v>1.47</v>
@@ -32188,7 +32188,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ149">
         <v>1.19</v>
@@ -33633,7 +33633,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -34454,7 +34454,7 @@
         <v>1.25</v>
       </c>
       <c r="AP160">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ160">
         <v>1.44</v>
@@ -35484,7 +35484,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ165">
         <v>1.06</v>
@@ -36105,7 +36105,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ168">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR168">
         <v>1.19</v>
@@ -37753,7 +37753,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ176">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -38574,7 +38574,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ180">
         <v>1.44</v>
@@ -40019,7 +40019,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ187">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.23</v>
@@ -40634,7 +40634,7 @@
         <v>1.6</v>
       </c>
       <c r="AP190">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ190">
         <v>1.94</v>
@@ -41049,7 +41049,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ192">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR192">
         <v>1.68</v>
@@ -41792,7 +41792,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -42204,7 +42204,7 @@
         <v>216</v>
       </c>
       <c r="P198" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="Q198">
         <v>3.4</v>
@@ -42488,7 +42488,7 @@
         <v>0.7</v>
       </c>
       <c r="AP199">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ199">
         <v>0.73</v>
@@ -43521,7 +43521,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ204">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR204">
         <v>1.43</v>
@@ -43930,7 +43930,7 @@
         <v>0.82</v>
       </c>
       <c r="AP206">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ206">
         <v>0.6899999999999999</v>
@@ -45372,10 +45372,10 @@
         <v>0.83</v>
       </c>
       <c r="AP213">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ213">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR213">
         <v>1.73</v>
@@ -46402,7 +46402,7 @@
         <v>0.91</v>
       </c>
       <c r="AP218">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ218">
         <v>1.44</v>
@@ -47023,7 +47023,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ221">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR221">
         <v>1.76</v>
@@ -48874,7 +48874,7 @@
         <v>1.15</v>
       </c>
       <c r="AP230">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ230">
         <v>1.19</v>
@@ -49289,7 +49289,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ232">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR232">
         <v>1.33</v>
@@ -50444,7 +50444,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -50525,7 +50525,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ238">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR238">
         <v>1.54</v>
@@ -51346,7 +51346,7 @@
         <v>1.08</v>
       </c>
       <c r="AP242">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ242">
         <v>1.31</v>
@@ -52173,7 +52173,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ246">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR246">
         <v>1.66</v>
@@ -52582,7 +52582,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ248">
         <v>1.06</v>
@@ -54027,7 +54027,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ255">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR255">
         <v>1.32</v>
@@ -55054,7 +55054,7 @@
         <v>0.93</v>
       </c>
       <c r="AP260">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ260">
         <v>0.8100000000000001</v>
@@ -56290,7 +56290,7 @@
         <v>2</v>
       </c>
       <c r="AP266">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ266">
         <v>1.94</v>
@@ -57735,7 +57735,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ273">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR273">
         <v>1.76</v>
@@ -58559,7 +58559,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ277">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR277">
         <v>1.29</v>
@@ -60410,7 +60410,7 @@
         <v>1.33</v>
       </c>
       <c r="AP286">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AQ286">
         <v>1.31</v>
@@ -60695,6 +60695,418 @@
       </c>
       <c r="BP287">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6717405</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45422.66666666666</v>
+      </c>
+      <c r="F288">
+        <v>33</v>
+      </c>
+      <c r="G288" t="s">
+        <v>70</v>
+      </c>
+      <c r="H288" t="s">
+        <v>85</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
+        <v>225</v>
+      </c>
+      <c r="P288" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q288">
+        <v>2.1</v>
+      </c>
+      <c r="R288">
+        <v>2.25</v>
+      </c>
+      <c r="S288">
+        <v>6</v>
+      </c>
+      <c r="T288">
+        <v>1.4</v>
+      </c>
+      <c r="U288">
+        <v>2.75</v>
+      </c>
+      <c r="V288">
+        <v>2.75</v>
+      </c>
+      <c r="W288">
+        <v>1.4</v>
+      </c>
+      <c r="X288">
+        <v>8</v>
+      </c>
+      <c r="Y288">
+        <v>1.08</v>
+      </c>
+      <c r="Z288">
+        <v>1.5</v>
+      </c>
+      <c r="AA288">
+        <v>4</v>
+      </c>
+      <c r="AB288">
+        <v>6.5</v>
+      </c>
+      <c r="AC288">
+        <v>1.05</v>
+      </c>
+      <c r="AD288">
+        <v>12</v>
+      </c>
+      <c r="AE288">
+        <v>1.3</v>
+      </c>
+      <c r="AF288">
+        <v>3.6</v>
+      </c>
+      <c r="AG288">
+        <v>2.03</v>
+      </c>
+      <c r="AH288">
+        <v>1.87</v>
+      </c>
+      <c r="AI288">
+        <v>2</v>
+      </c>
+      <c r="AJ288">
+        <v>1.75</v>
+      </c>
+      <c r="AK288">
+        <v>1.11</v>
+      </c>
+      <c r="AL288">
+        <v>1.2</v>
+      </c>
+      <c r="AM288">
+        <v>2.55</v>
+      </c>
+      <c r="AN288">
+        <v>1.87</v>
+      </c>
+      <c r="AO288">
+        <v>0.75</v>
+      </c>
+      <c r="AP288">
+        <v>1.94</v>
+      </c>
+      <c r="AQ288">
+        <v>0.71</v>
+      </c>
+      <c r="AR288">
+        <v>1.51</v>
+      </c>
+      <c r="AS288">
+        <v>1.02</v>
+      </c>
+      <c r="AT288">
+        <v>2.53</v>
+      </c>
+      <c r="AU288">
+        <v>7</v>
+      </c>
+      <c r="AV288">
+        <v>3</v>
+      </c>
+      <c r="AW288">
+        <v>5</v>
+      </c>
+      <c r="AX288">
+        <v>7</v>
+      </c>
+      <c r="AY288">
+        <v>12</v>
+      </c>
+      <c r="AZ288">
+        <v>10</v>
+      </c>
+      <c r="BA288">
+        <v>6</v>
+      </c>
+      <c r="BB288">
+        <v>1</v>
+      </c>
+      <c r="BC288">
+        <v>7</v>
+      </c>
+      <c r="BD288">
+        <v>1.35</v>
+      </c>
+      <c r="BE288">
+        <v>9.5</v>
+      </c>
+      <c r="BF288">
+        <v>3.75</v>
+      </c>
+      <c r="BG288">
+        <v>1.39</v>
+      </c>
+      <c r="BH288">
+        <v>2.77</v>
+      </c>
+      <c r="BI288">
+        <v>1.75</v>
+      </c>
+      <c r="BJ288">
+        <v>1.95</v>
+      </c>
+      <c r="BK288">
+        <v>2.27</v>
+      </c>
+      <c r="BL288">
+        <v>1.56</v>
+      </c>
+      <c r="BM288">
+        <v>3.1</v>
+      </c>
+      <c r="BN288">
+        <v>1.32</v>
+      </c>
+      <c r="BO288">
+        <v>3.8</v>
+      </c>
+      <c r="BP288">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6717409</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45422.66666666666</v>
+      </c>
+      <c r="F289">
+        <v>33</v>
+      </c>
+      <c r="G289" t="s">
+        <v>73</v>
+      </c>
+      <c r="H289" t="s">
+        <v>84</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>272</v>
+      </c>
+      <c r="P289" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q289">
+        <v>2.2</v>
+      </c>
+      <c r="R289">
+        <v>2.38</v>
+      </c>
+      <c r="S289">
+        <v>5</v>
+      </c>
+      <c r="T289">
+        <v>1.33</v>
+      </c>
+      <c r="U289">
+        <v>3.25</v>
+      </c>
+      <c r="V289">
+        <v>2.5</v>
+      </c>
+      <c r="W289">
+        <v>1.5</v>
+      </c>
+      <c r="X289">
+        <v>6.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.11</v>
+      </c>
+      <c r="Z289">
+        <v>1.85</v>
+      </c>
+      <c r="AA289">
+        <v>3.6</v>
+      </c>
+      <c r="AB289">
+        <v>4</v>
+      </c>
+      <c r="AC289">
+        <v>1.03</v>
+      </c>
+      <c r="AD289">
+        <v>15</v>
+      </c>
+      <c r="AE289">
+        <v>1.22</v>
+      </c>
+      <c r="AF289">
+        <v>4.33</v>
+      </c>
+      <c r="AG289">
+        <v>1.9</v>
+      </c>
+      <c r="AH289">
+        <v>2</v>
+      </c>
+      <c r="AI289">
+        <v>1.75</v>
+      </c>
+      <c r="AJ289">
+        <v>2</v>
+      </c>
+      <c r="AK289">
+        <v>1.19</v>
+      </c>
+      <c r="AL289">
+        <v>1.2</v>
+      </c>
+      <c r="AM289">
+        <v>2.2</v>
+      </c>
+      <c r="AN289">
+        <v>1.88</v>
+      </c>
+      <c r="AO289">
+        <v>1.19</v>
+      </c>
+      <c r="AP289">
+        <v>1.82</v>
+      </c>
+      <c r="AQ289">
+        <v>1.18</v>
+      </c>
+      <c r="AR289">
+        <v>1.64</v>
+      </c>
+      <c r="AS289">
+        <v>1.29</v>
+      </c>
+      <c r="AT289">
+        <v>2.93</v>
+      </c>
+      <c r="AU289">
+        <v>6</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>8</v>
+      </c>
+      <c r="AX289">
+        <v>3</v>
+      </c>
+      <c r="AY289">
+        <v>14</v>
+      </c>
+      <c r="AZ289">
+        <v>6</v>
+      </c>
+      <c r="BA289">
+        <v>3</v>
+      </c>
+      <c r="BB289">
+        <v>4</v>
+      </c>
+      <c r="BC289">
+        <v>7</v>
+      </c>
+      <c r="BD289">
+        <v>1.57</v>
+      </c>
+      <c r="BE289">
+        <v>9.5</v>
+      </c>
+      <c r="BF289">
+        <v>2.9</v>
+      </c>
+      <c r="BG289">
+        <v>1.24</v>
+      </c>
+      <c r="BH289">
+        <v>3.48</v>
+      </c>
+      <c r="BI289">
+        <v>1.47</v>
+      </c>
+      <c r="BJ289">
+        <v>2.53</v>
+      </c>
+      <c r="BK289">
+        <v>1.83</v>
+      </c>
+      <c r="BL289">
+        <v>1.93</v>
+      </c>
+      <c r="BM289">
+        <v>2.32</v>
+      </c>
+      <c r="BN289">
+        <v>1.55</v>
+      </c>
+      <c r="BO289">
+        <v>3.08</v>
+      </c>
+      <c r="BP289">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,18 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['36', '41', '54']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['89', '90+1']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['10']</t>
   </si>
   <si>
@@ -1093,9 +1105,6 @@
     <t>['23', '59', '67', '80', '90+2']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['47', '83']</t>
   </si>
   <si>
@@ -1208,6 +1217,15 @@
   </si>
   <si>
     <t>['65', '82', '88', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '65']</t>
+  </si>
+  <si>
+    <t>['8', '11']</t>
+  </si>
+  <si>
+    <t>['13', '68', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,7 +1927,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ2">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2034,7 +2052,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q3">
         <v>2.1</v>
@@ -2112,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ3">
         <v>1.18</v>
@@ -2318,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ4">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2446,7 +2464,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2527,7 +2545,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ5">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2652,7 +2670,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2730,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ6">
         <v>0.71</v>
@@ -2858,7 +2876,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2936,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ7">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3064,7 +3082,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3142,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3270,7 +3288,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q9">
         <v>1.91</v>
@@ -3348,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ9">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3554,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3682,7 +3700,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11">
         <v>4.4</v>
@@ -3888,7 +3906,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -4094,7 +4112,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -4506,7 +4524,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q15">
         <v>3.7</v>
@@ -4918,7 +4936,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q17">
         <v>3.16</v>
@@ -5536,7 +5554,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q20">
         <v>4.33</v>
@@ -5614,10 +5632,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>1.12</v>
@@ -5820,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ21">
         <v>1.69</v>
@@ -5948,7 +5966,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q22">
         <v>2.05</v>
@@ -6026,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR22">
         <v>2.03</v>
@@ -6154,7 +6172,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <v>1.95</v>
@@ -6232,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -6438,10 +6456,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR24">
         <v>0.87</v>
@@ -6644,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ25">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.79</v>
@@ -6772,7 +6790,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6850,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ26">
         <v>1.18</v>
@@ -6978,7 +6996,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -7059,7 +7077,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>0.74</v>
@@ -7265,7 +7283,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR28">
         <v>0.93</v>
@@ -7468,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ29">
         <v>0.73</v>
@@ -7883,7 +7901,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -8008,7 +8026,7 @@
         <v>115</v>
       </c>
       <c r="P32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -8501,7 +8519,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8626,7 +8644,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q35">
         <v>4.33</v>
@@ -9038,7 +9056,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9244,7 +9262,7 @@
         <v>121</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q38">
         <v>1.95</v>
@@ -9322,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
         <v>1.44</v>
@@ -9450,7 +9468,7 @@
         <v>122</v>
       </c>
       <c r="P39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9528,10 +9546,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>2.63</v>
@@ -9737,7 +9755,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9862,7 +9880,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9943,7 +9961,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ41">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.04</v>
@@ -10146,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ42">
         <v>1.31</v>
@@ -10274,7 +10292,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q43">
         <v>2.5</v>
@@ -10480,7 +10498,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10558,7 +10576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ44">
         <v>1.44</v>
@@ -10764,10 +10782,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR45">
         <v>1.45</v>
@@ -11098,7 +11116,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -11304,7 +11322,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11382,10 +11400,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ48">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR48">
         <v>0.85</v>
@@ -11591,7 +11609,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ49">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR49">
         <v>1.49</v>
@@ -11716,7 +11734,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12003,7 +12021,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR51">
         <v>2.27</v>
@@ -12412,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ53">
         <v>1.31</v>
@@ -12618,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ54">
         <v>0.73</v>
@@ -12746,7 +12764,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -13030,10 +13048,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ56">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR56">
         <v>1.28</v>
@@ -13236,7 +13254,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ57">
         <v>2.47</v>
@@ -13364,7 +13382,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13651,7 +13669,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR59">
         <v>1.49</v>
@@ -13982,7 +14000,7 @@
         <v>90</v>
       </c>
       <c r="P61" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -14063,7 +14081,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -14269,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0.93</v>
@@ -14394,7 +14412,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14600,7 +14618,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14678,7 +14696,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64">
         <v>1.31</v>
@@ -14806,7 +14824,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14884,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ65">
         <v>1.31</v>
@@ -15218,7 +15236,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15299,7 +15317,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.36</v>
@@ -15502,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15630,7 +15648,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15711,7 +15729,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR69">
         <v>1.73</v>
@@ -15836,7 +15854,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q70">
         <v>2.4</v>
@@ -15917,7 +15935,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR70">
         <v>1.92</v>
@@ -16042,7 +16060,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16123,7 +16141,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ71">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>2.3</v>
@@ -16248,7 +16266,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q72">
         <v>3.75</v>
@@ -16326,7 +16344,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
         <v>2.47</v>
@@ -16535,7 +16553,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16738,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74">
         <v>0.9399999999999999</v>
@@ -17072,7 +17090,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>4.33</v>
@@ -17356,7 +17374,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ77">
         <v>1.44</v>
@@ -17977,7 +17995,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ80">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -18102,7 +18120,7 @@
         <v>103</v>
       </c>
       <c r="P81" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q81">
         <v>2.3</v>
@@ -18386,7 +18404,7 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ82">
         <v>1.44</v>
@@ -18595,7 +18613,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18926,7 +18944,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
@@ -19210,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19419,7 +19437,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ87">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.54</v>
@@ -19750,7 +19768,7 @@
         <v>152</v>
       </c>
       <c r="P89" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19828,7 +19846,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -20034,7 +20052,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ90">
         <v>1.44</v>
@@ -20243,7 +20261,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ91">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR91">
         <v>1.11</v>
@@ -20446,10 +20464,10 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ92">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR92">
         <v>1.67</v>
@@ -20655,7 +20673,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.8</v>
@@ -20780,7 +20798,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20986,7 +21004,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -21064,7 +21082,7 @@
         <v>1.6</v>
       </c>
       <c r="AP95">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
         <v>1.18</v>
@@ -21270,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ96">
         <v>0.6899999999999999</v>
@@ -21888,7 +21906,7 @@
         <v>2.6</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -22016,7 +22034,7 @@
         <v>90</v>
       </c>
       <c r="P100" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -22303,7 +22321,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22715,7 +22733,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR103">
         <v>1.43</v>
@@ -22918,10 +22936,10 @@
         <v>0.4</v>
       </c>
       <c r="AP104">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ104">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR104">
         <v>1.33</v>
@@ -23046,7 +23064,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -23124,10 +23142,10 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR105">
         <v>1.88</v>
@@ -23458,7 +23476,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q107">
         <v>1.91</v>
@@ -23536,10 +23554,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ107">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.78</v>
@@ -23664,7 +23682,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23742,10 +23760,10 @@
         <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ108">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR108">
         <v>1.41</v>
@@ -23870,7 +23888,7 @@
         <v>145</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23948,7 +23966,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ109">
         <v>0.73</v>
@@ -24157,7 +24175,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -24282,7 +24300,7 @@
         <v>162</v>
       </c>
       <c r="P111" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24363,7 +24381,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ111">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.05</v>
@@ -24566,7 +24584,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ112">
         <v>0.71</v>
@@ -24694,7 +24712,7 @@
         <v>144</v>
       </c>
       <c r="P113" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24772,7 +24790,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113">
         <v>1.69</v>
@@ -24900,7 +24918,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q114">
         <v>2.5</v>
@@ -24978,7 +24996,7 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114">
         <v>1.18</v>
@@ -25106,7 +25124,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -25187,7 +25205,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR115">
         <v>1.72</v>
@@ -25312,7 +25330,7 @@
         <v>99</v>
       </c>
       <c r="P116" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25390,7 +25408,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ116">
         <v>0.6899999999999999</v>
@@ -25724,7 +25742,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q118">
         <v>2.25</v>
@@ -25805,7 +25823,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR118">
         <v>1.93</v>
@@ -26008,7 +26026,7 @@
         <v>2.33</v>
       </c>
       <c r="AP119">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ119">
         <v>1.44</v>
@@ -26136,7 +26154,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q120">
         <v>7.5</v>
@@ -26754,7 +26772,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26835,7 +26853,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -27041,7 +27059,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.45</v>
@@ -27244,7 +27262,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ125">
         <v>1.31</v>
@@ -27450,10 +27468,10 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ126">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR126">
         <v>1.47</v>
@@ -27578,7 +27596,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27862,10 +27880,10 @@
         <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.63</v>
@@ -27990,7 +28008,7 @@
         <v>159</v>
       </c>
       <c r="P129" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -28068,10 +28086,10 @@
         <v>1.29</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR129">
         <v>1.67</v>
@@ -28196,7 +28214,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -28274,7 +28292,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ130">
         <v>1.31</v>
@@ -28402,7 +28420,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28686,7 +28704,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ132">
         <v>0.71</v>
@@ -28892,10 +28910,10 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ133">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR133">
         <v>1.41</v>
@@ -29020,7 +29038,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -29307,7 +29325,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR135">
         <v>1.66</v>
@@ -29432,7 +29450,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29719,7 +29737,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR137">
         <v>1.7</v>
@@ -29844,7 +29862,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>5</v>
@@ -30256,7 +30274,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q140">
         <v>3.4</v>
@@ -30334,7 +30352,7 @@
         <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ140">
         <v>1.69</v>
@@ -30462,7 +30480,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q141">
         <v>3.2</v>
@@ -30668,7 +30686,7 @@
         <v>90</v>
       </c>
       <c r="P142" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -31158,7 +31176,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ144">
         <v>0.6899999999999999</v>
@@ -31573,7 +31591,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ146">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR146">
         <v>1.73</v>
@@ -31904,7 +31922,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q148">
         <v>3.75</v>
@@ -31982,7 +32000,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ148">
         <v>1.31</v>
@@ -32191,7 +32209,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ149">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -32522,7 +32540,7 @@
         <v>187</v>
       </c>
       <c r="P151" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q151">
         <v>4.33</v>
@@ -32603,7 +32621,7 @@
         <v>1</v>
       </c>
       <c r="AQ151">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR151">
         <v>1.42</v>
@@ -32806,10 +32824,10 @@
         <v>1.25</v>
       </c>
       <c r="AP152">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ152">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.82</v>
@@ -33012,7 +33030,7 @@
         <v>0.75</v>
       </c>
       <c r="AP153">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ153">
         <v>0.73</v>
@@ -33218,10 +33236,10 @@
         <v>1.38</v>
       </c>
       <c r="AP154">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ154">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR154">
         <v>1.29</v>
@@ -33424,7 +33442,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33552,7 +33570,7 @@
         <v>154</v>
       </c>
       <c r="P156" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q156">
         <v>2.25</v>
@@ -33836,7 +33854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ157">
         <v>1.44</v>
@@ -34045,7 +34063,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ158">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR158">
         <v>1.45</v>
@@ -34251,7 +34269,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR159">
         <v>1.11</v>
@@ -34582,7 +34600,7 @@
         <v>194</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34660,7 +34678,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ161">
         <v>0.6899999999999999</v>
@@ -34869,7 +34887,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ162">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34994,7 +35012,7 @@
         <v>90</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35200,7 +35218,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35487,7 +35505,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ165">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35612,7 +35630,7 @@
         <v>197</v>
       </c>
       <c r="P166" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35690,10 +35708,10 @@
         <v>1.67</v>
       </c>
       <c r="AP166">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ166">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35896,10 +35914,10 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ167">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR167">
         <v>1.58</v>
@@ -36024,7 +36042,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q168">
         <v>3.6</v>
@@ -36308,7 +36326,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -36723,7 +36741,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR171">
         <v>1.48</v>
@@ -36848,7 +36866,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>1.91</v>
@@ -36926,7 +36944,7 @@
         <v>1.78</v>
       </c>
       <c r="AP172">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ172">
         <v>1.69</v>
@@ -37054,7 +37072,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37132,7 +37150,7 @@
         <v>2.33</v>
       </c>
       <c r="AP173">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ173">
         <v>2.47</v>
@@ -37338,7 +37356,7 @@
         <v>1.11</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174">
         <v>1.44</v>
@@ -37544,10 +37562,10 @@
         <v>1.2</v>
       </c>
       <c r="AP175">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ175">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR175">
         <v>1.47</v>
@@ -37878,7 +37896,7 @@
         <v>203</v>
       </c>
       <c r="P177" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q177">
         <v>2.3</v>
@@ -37959,7 +37977,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR177">
         <v>1.54</v>
@@ -38290,7 +38308,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38371,7 +38389,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ179">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR179">
         <v>1.14</v>
@@ -38986,10 +39004,10 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>1.55</v>
@@ -39114,7 +39132,7 @@
         <v>207</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q183">
         <v>2.2</v>
@@ -39398,10 +39416,10 @@
         <v>1.2</v>
       </c>
       <c r="AP184">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ184">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR184">
         <v>1.75</v>
@@ -39732,7 +39750,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -40144,7 +40162,7 @@
         <v>98</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q188">
         <v>4.33</v>
@@ -40222,7 +40240,7 @@
         <v>1.7</v>
       </c>
       <c r="AP188">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ188">
         <v>1.69</v>
@@ -40350,7 +40368,7 @@
         <v>152</v>
       </c>
       <c r="P189" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q189">
         <v>3.6</v>
@@ -40428,10 +40446,10 @@
         <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ189">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR189">
         <v>1.57</v>
@@ -40556,7 +40574,7 @@
         <v>211</v>
       </c>
       <c r="P190" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -40637,7 +40655,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ190">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR190">
         <v>1.4</v>
@@ -41174,7 +41192,7 @@
         <v>90</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q193">
         <v>5.5</v>
@@ -41252,7 +41270,7 @@
         <v>2.4</v>
       </c>
       <c r="AP193">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ193">
         <v>2.47</v>
@@ -41380,7 +41398,7 @@
         <v>144</v>
       </c>
       <c r="P194" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q194">
         <v>2.3</v>
@@ -41458,10 +41476,10 @@
         <v>0.6</v>
       </c>
       <c r="AP194">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ194">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41586,7 +41604,7 @@
         <v>213</v>
       </c>
       <c r="P195" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q195">
         <v>2.05</v>
@@ -41667,7 +41685,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR195">
         <v>1.72</v>
@@ -41792,7 +41810,7 @@
         <v>214</v>
       </c>
       <c r="P196" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -41870,7 +41888,7 @@
         <v>0.9</v>
       </c>
       <c r="AP196">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
         <v>0.6899999999999999</v>
@@ -42076,10 +42094,10 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ197">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.6</v>
@@ -42285,7 +42303,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ198">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR198">
         <v>1.56</v>
@@ -42616,7 +42634,7 @@
         <v>94</v>
       </c>
       <c r="P200" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q200">
         <v>4.75</v>
@@ -42697,7 +42715,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ200">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR200">
         <v>1.15</v>
@@ -43028,7 +43046,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>3.5</v>
@@ -43106,7 +43124,7 @@
         <v>1.64</v>
       </c>
       <c r="AP202">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ202">
         <v>1.69</v>
@@ -43234,7 +43252,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>2.88</v>
@@ -43315,7 +43333,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ203">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR203">
         <v>1.67</v>
@@ -43440,7 +43458,7 @@
         <v>120</v>
       </c>
       <c r="P204" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q204">
         <v>3.75</v>
@@ -43646,7 +43664,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -43727,7 +43745,7 @@
         <v>1</v>
       </c>
       <c r="AQ205">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR205">
         <v>1.47</v>
@@ -44136,7 +44154,7 @@
         <v>1.3</v>
       </c>
       <c r="AP207">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ207">
         <v>1.31</v>
@@ -44342,7 +44360,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ208">
         <v>1.44</v>
@@ -44757,7 +44775,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ210">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR210">
         <v>1.51</v>
@@ -44882,7 +44900,7 @@
         <v>181</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>4.5</v>
@@ -44960,7 +44978,7 @@
         <v>0.64</v>
       </c>
       <c r="AP211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ211">
         <v>0.73</v>
@@ -45088,7 +45106,7 @@
         <v>222</v>
       </c>
       <c r="P212" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45500,7 +45518,7 @@
         <v>224</v>
       </c>
       <c r="P214" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45578,7 +45596,7 @@
         <v>0.91</v>
       </c>
       <c r="AP214">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ214">
         <v>0.9399999999999999</v>
@@ -45784,10 +45802,10 @@
         <v>0.92</v>
       </c>
       <c r="AP215">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ215">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR215">
         <v>1.42</v>
@@ -45912,7 +45930,7 @@
         <v>183</v>
       </c>
       <c r="P216" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -45990,10 +46008,10 @@
         <v>0.82</v>
       </c>
       <c r="AP216">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ216">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR216">
         <v>1.62</v>
@@ -46118,7 +46136,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46199,7 +46217,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ217">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR217">
         <v>1.56</v>
@@ -46530,7 +46548,7 @@
         <v>90</v>
       </c>
       <c r="P219" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46611,7 +46629,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ219">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR219">
         <v>1.21</v>
@@ -46942,7 +46960,7 @@
         <v>227</v>
       </c>
       <c r="P221" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q221">
         <v>1.91</v>
@@ -47020,7 +47038,7 @@
         <v>1.42</v>
       </c>
       <c r="AP221">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ221">
         <v>1.18</v>
@@ -47229,7 +47247,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR222">
         <v>1.45</v>
@@ -47432,10 +47450,10 @@
         <v>1.83</v>
       </c>
       <c r="AP223">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR223">
         <v>1.34</v>
@@ -47766,7 +47784,7 @@
         <v>230</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -48050,7 +48068,7 @@
         <v>1.18</v>
       </c>
       <c r="AP226">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ226">
         <v>1.31</v>
@@ -48178,7 +48196,7 @@
         <v>232</v>
       </c>
       <c r="P227" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>3.25</v>
@@ -48259,7 +48277,7 @@
         <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR227">
         <v>1.45</v>
@@ -48384,7 +48402,7 @@
         <v>233</v>
       </c>
       <c r="P228" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q228">
         <v>3.1</v>
@@ -48462,7 +48480,7 @@
         <v>0.92</v>
       </c>
       <c r="AP228">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ228">
         <v>0.9399999999999999</v>
@@ -48590,7 +48608,7 @@
         <v>234</v>
       </c>
       <c r="P229" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q229">
         <v>2.75</v>
@@ -48796,7 +48814,7 @@
         <v>130</v>
       </c>
       <c r="P230" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q230">
         <v>3.4</v>
@@ -48877,7 +48895,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ230">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR230">
         <v>1.68</v>
@@ -49002,7 +49020,7 @@
         <v>235</v>
       </c>
       <c r="P231" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49083,7 +49101,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ231">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR231">
         <v>1.68</v>
@@ -49208,7 +49226,7 @@
         <v>236</v>
       </c>
       <c r="P232" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q232">
         <v>3.4</v>
@@ -49286,7 +49304,7 @@
         <v>0.77</v>
       </c>
       <c r="AP232">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ232">
         <v>0.71</v>
@@ -49495,7 +49513,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ233">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR233">
         <v>1.48</v>
@@ -49698,7 +49716,7 @@
         <v>0.83</v>
       </c>
       <c r="AP234">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ234">
         <v>0.73</v>
@@ -49826,7 +49844,7 @@
         <v>239</v>
       </c>
       <c r="P235" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49904,7 +49922,7 @@
         <v>2.33</v>
       </c>
       <c r="AP235">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ235">
         <v>2.47</v>
@@ -50032,7 +50050,7 @@
         <v>240</v>
       </c>
       <c r="P236" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q236">
         <v>2.75</v>
@@ -50113,7 +50131,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ236">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR236">
         <v>1.71</v>
@@ -50238,7 +50256,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50319,7 +50337,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ237">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR237">
         <v>1.18</v>
@@ -50444,7 +50462,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q238">
         <v>2.63</v>
@@ -50650,7 +50668,7 @@
         <v>90</v>
       </c>
       <c r="P239" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q239">
         <v>4.5</v>
@@ -50856,7 +50874,7 @@
         <v>90</v>
       </c>
       <c r="P240" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q240">
         <v>3.25</v>
@@ -51062,7 +51080,7 @@
         <v>90</v>
       </c>
       <c r="P241" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q241">
         <v>3.6</v>
@@ -51140,10 +51158,10 @@
         <v>1.15</v>
       </c>
       <c r="AP241">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ241">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR241">
         <v>1.31</v>
@@ -51268,7 +51286,7 @@
         <v>169</v>
       </c>
       <c r="P242" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51552,7 +51570,7 @@
         <v>1.25</v>
       </c>
       <c r="AP243">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ243">
         <v>1.31</v>
@@ -51680,7 +51698,7 @@
         <v>90</v>
       </c>
       <c r="P244" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51758,7 +51776,7 @@
         <v>2.38</v>
       </c>
       <c r="AP244">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ244">
         <v>2.47</v>
@@ -51886,7 +51904,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q245">
         <v>2.88</v>
@@ -52092,7 +52110,7 @@
         <v>245</v>
       </c>
       <c r="P246" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q246">
         <v>2.2</v>
@@ -52376,7 +52394,7 @@
         <v>0.77</v>
       </c>
       <c r="AP247">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ247">
         <v>0.6899999999999999</v>
@@ -52504,7 +52522,7 @@
         <v>247</v>
       </c>
       <c r="P248" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q248">
         <v>2.2</v>
@@ -52585,7 +52603,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ248">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR248">
         <v>1.66</v>
@@ -53200,10 +53218,10 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ251">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR251">
         <v>1.64</v>
@@ -53534,7 +53552,7 @@
         <v>249</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q253">
         <v>3.75</v>
@@ -53612,10 +53630,10 @@
         <v>1.46</v>
       </c>
       <c r="AP253">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ253">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR253">
         <v>1.39</v>
@@ -53821,7 +53839,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ254">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR254">
         <v>1.2</v>
@@ -53946,7 +53964,7 @@
         <v>251</v>
       </c>
       <c r="P255" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q255">
         <v>3.25</v>
@@ -54024,7 +54042,7 @@
         <v>1.36</v>
       </c>
       <c r="AP255">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ255">
         <v>1.18</v>
@@ -54152,7 +54170,7 @@
         <v>252</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54230,10 +54248,10 @@
         <v>1.29</v>
       </c>
       <c r="AP256">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ256">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR256">
         <v>1.62</v>
@@ -54358,7 +54376,7 @@
         <v>90</v>
       </c>
       <c r="P257" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q257">
         <v>3.25</v>
@@ -54642,7 +54660,7 @@
         <v>1.23</v>
       </c>
       <c r="AP258">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ258">
         <v>1.44</v>
@@ -54770,7 +54788,7 @@
         <v>254</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q259">
         <v>2.88</v>
@@ -55057,7 +55075,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ260">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR260">
         <v>1.45</v>
@@ -55182,7 +55200,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55260,7 +55278,7 @@
         <v>1.07</v>
       </c>
       <c r="AP261">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ261">
         <v>1.31</v>
@@ -55594,7 +55612,7 @@
         <v>256</v>
       </c>
       <c r="P263" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -56006,7 +56024,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q265">
         <v>2.88</v>
@@ -56087,7 +56105,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ265">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR265">
         <v>1.4</v>
@@ -56212,7 +56230,7 @@
         <v>90</v>
       </c>
       <c r="P266" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q266">
         <v>3.2</v>
@@ -56293,7 +56311,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ266">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR266">
         <v>1.71</v>
@@ -56418,7 +56436,7 @@
         <v>257</v>
       </c>
       <c r="P267" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q267">
         <v>3.5</v>
@@ -56702,10 +56720,10 @@
         <v>1.57</v>
       </c>
       <c r="AP268">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ268">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR268">
         <v>1.77</v>
@@ -56830,7 +56848,7 @@
         <v>259</v>
       </c>
       <c r="P269" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q269">
         <v>6</v>
@@ -57036,7 +57054,7 @@
         <v>260</v>
       </c>
       <c r="P270" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q270">
         <v>2.75</v>
@@ -57114,7 +57132,7 @@
         <v>1.36</v>
       </c>
       <c r="AP270">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ270">
         <v>1.44</v>
@@ -57323,7 +57341,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ271">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR271">
         <v>1.73</v>
@@ -57448,7 +57466,7 @@
         <v>116</v>
       </c>
       <c r="P272" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q272">
         <v>2.5</v>
@@ -57526,7 +57544,7 @@
         <v>1.36</v>
       </c>
       <c r="AP272">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ272">
         <v>1.31</v>
@@ -57654,7 +57672,7 @@
         <v>262</v>
       </c>
       <c r="P273" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q273">
         <v>1.83</v>
@@ -57732,7 +57750,7 @@
         <v>0.73</v>
       </c>
       <c r="AP273">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ273">
         <v>0.71</v>
@@ -57860,7 +57878,7 @@
         <v>152</v>
       </c>
       <c r="P274" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q274">
         <v>4.75</v>
@@ -57941,7 +57959,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ274">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR274">
         <v>1.2</v>
@@ -58066,7 +58084,7 @@
         <v>88</v>
       </c>
       <c r="P275" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q275">
         <v>3.75</v>
@@ -58144,7 +58162,7 @@
         <v>1.33</v>
       </c>
       <c r="AP275">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ275">
         <v>1.44</v>
@@ -58272,7 +58290,7 @@
         <v>124</v>
       </c>
       <c r="P276" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q276">
         <v>3.25</v>
@@ -58353,7 +58371,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ276">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR276">
         <v>1.23</v>
@@ -58556,7 +58574,7 @@
         <v>1.27</v>
       </c>
       <c r="AP277">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ277">
         <v>1.18</v>
@@ -58684,7 +58702,7 @@
         <v>264</v>
       </c>
       <c r="P278" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58762,7 +58780,7 @@
         <v>1.6</v>
       </c>
       <c r="AP278">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ278">
         <v>1.69</v>
@@ -58890,7 +58908,7 @@
         <v>265</v>
       </c>
       <c r="P279" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q279">
         <v>3</v>
@@ -58971,7 +58989,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ279">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR279">
         <v>1.57</v>
@@ -59174,10 +59192,10 @@
         <v>1.27</v>
       </c>
       <c r="AP280">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ280">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR280">
         <v>1.6</v>
@@ -59302,7 +59320,7 @@
         <v>223</v>
       </c>
       <c r="P281" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q281">
         <v>2.7</v>
@@ -59589,7 +59607,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ282">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR282">
         <v>1.7</v>
@@ -59714,7 +59732,7 @@
         <v>268</v>
       </c>
       <c r="P283" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -60126,7 +60144,7 @@
         <v>270</v>
       </c>
       <c r="P285" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60538,7 +60556,7 @@
         <v>271</v>
       </c>
       <c r="P287" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q287">
         <v>2.5</v>
@@ -60619,7 +60637,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ287">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR287">
         <v>1.64</v>
@@ -61107,6 +61125,1448 @@
       </c>
       <c r="BP289">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6717408</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>74</v>
+      </c>
+      <c r="H290" t="s">
+        <v>86</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" t="s">
+        <v>90</v>
+      </c>
+      <c r="P290" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q290">
+        <v>3.75</v>
+      </c>
+      <c r="R290">
+        <v>2.6</v>
+      </c>
+      <c r="S290">
+        <v>2.3</v>
+      </c>
+      <c r="T290">
+        <v>1.22</v>
+      </c>
+      <c r="U290">
+        <v>4</v>
+      </c>
+      <c r="V290">
+        <v>2</v>
+      </c>
+      <c r="W290">
+        <v>1.73</v>
+      </c>
+      <c r="X290">
+        <v>4.33</v>
+      </c>
+      <c r="Y290">
+        <v>1.2</v>
+      </c>
+      <c r="Z290">
+        <v>3.18</v>
+      </c>
+      <c r="AA290">
+        <v>4.04</v>
+      </c>
+      <c r="AB290">
+        <v>2.04</v>
+      </c>
+      <c r="AC290">
+        <v>1.02</v>
+      </c>
+      <c r="AD290">
+        <v>26</v>
+      </c>
+      <c r="AE290">
+        <v>1.12</v>
+      </c>
+      <c r="AF290">
+        <v>6.5</v>
+      </c>
+      <c r="AG290">
+        <v>1.38</v>
+      </c>
+      <c r="AH290">
+        <v>2.9</v>
+      </c>
+      <c r="AI290">
+        <v>1.4</v>
+      </c>
+      <c r="AJ290">
+        <v>2.75</v>
+      </c>
+      <c r="AK290">
+        <v>1.92</v>
+      </c>
+      <c r="AL290">
+        <v>1.2</v>
+      </c>
+      <c r="AM290">
+        <v>1.3</v>
+      </c>
+      <c r="AN290">
+        <v>1.13</v>
+      </c>
+      <c r="AO290">
+        <v>1.94</v>
+      </c>
+      <c r="AP290">
+        <v>1.06</v>
+      </c>
+      <c r="AQ290">
+        <v>2</v>
+      </c>
+      <c r="AR290">
+        <v>1.59</v>
+      </c>
+      <c r="AS290">
+        <v>1.58</v>
+      </c>
+      <c r="AT290">
+        <v>3.17</v>
+      </c>
+      <c r="AU290">
+        <v>3</v>
+      </c>
+      <c r="AV290">
+        <v>8</v>
+      </c>
+      <c r="AW290">
+        <v>6</v>
+      </c>
+      <c r="AX290">
+        <v>5</v>
+      </c>
+      <c r="AY290">
+        <v>9</v>
+      </c>
+      <c r="AZ290">
+        <v>13</v>
+      </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
+      <c r="BB290">
+        <v>3</v>
+      </c>
+      <c r="BC290">
+        <v>6</v>
+      </c>
+      <c r="BD290">
+        <v>2.45</v>
+      </c>
+      <c r="BE290">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF290">
+        <v>1.75</v>
+      </c>
+      <c r="BG290">
+        <v>1.21</v>
+      </c>
+      <c r="BH290">
+        <v>3.74</v>
+      </c>
+      <c r="BI290">
+        <v>1.45</v>
+      </c>
+      <c r="BJ290">
+        <v>2.55</v>
+      </c>
+      <c r="BK290">
+        <v>1.78</v>
+      </c>
+      <c r="BL290">
+        <v>2.03</v>
+      </c>
+      <c r="BM290">
+        <v>2.2</v>
+      </c>
+      <c r="BN290">
+        <v>1.66</v>
+      </c>
+      <c r="BO290">
+        <v>2.88</v>
+      </c>
+      <c r="BP290">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6717407</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>76</v>
+      </c>
+      <c r="H291" t="s">
+        <v>82</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>2</v>
+      </c>
+      <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>161</v>
+      </c>
+      <c r="P291" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q291">
+        <v>4.33</v>
+      </c>
+      <c r="R291">
+        <v>2.1</v>
+      </c>
+      <c r="S291">
+        <v>2.63</v>
+      </c>
+      <c r="T291">
+        <v>1.44</v>
+      </c>
+      <c r="U291">
+        <v>2.63</v>
+      </c>
+      <c r="V291">
+        <v>3</v>
+      </c>
+      <c r="W291">
+        <v>1.36</v>
+      </c>
+      <c r="X291">
+        <v>9</v>
+      </c>
+      <c r="Y291">
+        <v>1.07</v>
+      </c>
+      <c r="Z291">
+        <v>3.8</v>
+      </c>
+      <c r="AA291">
+        <v>3.52</v>
+      </c>
+      <c r="AB291">
+        <v>1.97</v>
+      </c>
+      <c r="AC291">
+        <v>1.06</v>
+      </c>
+      <c r="AD291">
+        <v>10</v>
+      </c>
+      <c r="AE291">
+        <v>1.36</v>
+      </c>
+      <c r="AF291">
+        <v>3.2</v>
+      </c>
+      <c r="AG291">
+        <v>2.03</v>
+      </c>
+      <c r="AH291">
+        <v>1.78</v>
+      </c>
+      <c r="AI291">
+        <v>1.91</v>
+      </c>
+      <c r="AJ291">
+        <v>1.91</v>
+      </c>
+      <c r="AK291">
+        <v>1.83</v>
+      </c>
+      <c r="AL291">
+        <v>1.26</v>
+      </c>
+      <c r="AM291">
+        <v>1.28</v>
+      </c>
+      <c r="AN291">
+        <v>0.75</v>
+      </c>
+      <c r="AO291">
+        <v>1.19</v>
+      </c>
+      <c r="AP291">
+        <v>0.71</v>
+      </c>
+      <c r="AQ291">
+        <v>1.29</v>
+      </c>
+      <c r="AR291">
+        <v>1.37</v>
+      </c>
+      <c r="AS291">
+        <v>1.26</v>
+      </c>
+      <c r="AT291">
+        <v>2.63</v>
+      </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
+      <c r="AV291">
+        <v>3</v>
+      </c>
+      <c r="AW291">
+        <v>3</v>
+      </c>
+      <c r="AX291">
+        <v>5</v>
+      </c>
+      <c r="AY291">
+        <v>7</v>
+      </c>
+      <c r="AZ291">
+        <v>8</v>
+      </c>
+      <c r="BA291">
+        <v>5</v>
+      </c>
+      <c r="BB291">
+        <v>4</v>
+      </c>
+      <c r="BC291">
+        <v>9</v>
+      </c>
+      <c r="BD291">
+        <v>2.51</v>
+      </c>
+      <c r="BE291">
+        <v>9.1</v>
+      </c>
+      <c r="BF291">
+        <v>1.73</v>
+      </c>
+      <c r="BG291">
+        <v>1.23</v>
+      </c>
+      <c r="BH291">
+        <v>3.56</v>
+      </c>
+      <c r="BI291">
+        <v>1.56</v>
+      </c>
+      <c r="BJ291">
+        <v>2.39</v>
+      </c>
+      <c r="BK291">
+        <v>1.88</v>
+      </c>
+      <c r="BL291">
+        <v>1.92</v>
+      </c>
+      <c r="BM291">
+        <v>2.35</v>
+      </c>
+      <c r="BN291">
+        <v>1.57</v>
+      </c>
+      <c r="BO291">
+        <v>3.04</v>
+      </c>
+      <c r="BP291">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6717406</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>75</v>
+      </c>
+      <c r="H292" t="s">
+        <v>80</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>1</v>
+      </c>
+      <c r="O292" t="s">
+        <v>90</v>
+      </c>
+      <c r="P292" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q292">
+        <v>5</v>
+      </c>
+      <c r="R292">
+        <v>2.6</v>
+      </c>
+      <c r="S292">
+        <v>2.05</v>
+      </c>
+      <c r="T292">
+        <v>1.22</v>
+      </c>
+      <c r="U292">
+        <v>4</v>
+      </c>
+      <c r="V292">
+        <v>2.1</v>
+      </c>
+      <c r="W292">
+        <v>1.67</v>
+      </c>
+      <c r="X292">
+        <v>4.5</v>
+      </c>
+      <c r="Y292">
+        <v>1.18</v>
+      </c>
+      <c r="Z292">
+        <v>3.62</v>
+      </c>
+      <c r="AA292">
+        <v>3.84</v>
+      </c>
+      <c r="AB292">
+        <v>1.93</v>
+      </c>
+      <c r="AC292">
+        <v>1.03</v>
+      </c>
+      <c r="AD292">
+        <v>22</v>
+      </c>
+      <c r="AE292">
+        <v>1.14</v>
+      </c>
+      <c r="AF292">
+        <v>5.8</v>
+      </c>
+      <c r="AG292">
+        <v>1.64</v>
+      </c>
+      <c r="AH292">
+        <v>2.26</v>
+      </c>
+      <c r="AI292">
+        <v>1.53</v>
+      </c>
+      <c r="AJ292">
+        <v>2.38</v>
+      </c>
+      <c r="AK292">
+        <v>2.5</v>
+      </c>
+      <c r="AL292">
+        <v>1.22</v>
+      </c>
+      <c r="AM292">
+        <v>1.1</v>
+      </c>
+      <c r="AN292">
+        <v>0.88</v>
+      </c>
+      <c r="AO292">
+        <v>1.56</v>
+      </c>
+      <c r="AP292">
+        <v>0.82</v>
+      </c>
+      <c r="AQ292">
+        <v>1.65</v>
+      </c>
+      <c r="AR292">
+        <v>1.29</v>
+      </c>
+      <c r="AS292">
+        <v>1.44</v>
+      </c>
+      <c r="AT292">
+        <v>2.73</v>
+      </c>
+      <c r="AU292">
+        <v>7</v>
+      </c>
+      <c r="AV292">
+        <v>2</v>
+      </c>
+      <c r="AW292">
+        <v>11</v>
+      </c>
+      <c r="AX292">
+        <v>3</v>
+      </c>
+      <c r="AY292">
+        <v>18</v>
+      </c>
+      <c r="AZ292">
+        <v>5</v>
+      </c>
+      <c r="BA292">
+        <v>7</v>
+      </c>
+      <c r="BB292">
+        <v>2</v>
+      </c>
+      <c r="BC292">
+        <v>9</v>
+      </c>
+      <c r="BD292">
+        <v>2.77</v>
+      </c>
+      <c r="BE292">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF292">
+        <v>1.62</v>
+      </c>
+      <c r="BG292">
+        <v>1.28</v>
+      </c>
+      <c r="BH292">
+        <v>3.18</v>
+      </c>
+      <c r="BI292">
+        <v>1.61</v>
+      </c>
+      <c r="BJ292">
+        <v>2.28</v>
+      </c>
+      <c r="BK292">
+        <v>1.97</v>
+      </c>
+      <c r="BL292">
+        <v>1.84</v>
+      </c>
+      <c r="BM292">
+        <v>2.46</v>
+      </c>
+      <c r="BN292">
+        <v>1.53</v>
+      </c>
+      <c r="BO292">
+        <v>3.48</v>
+      </c>
+      <c r="BP292">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6717404</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>71</v>
+      </c>
+      <c r="H293" t="s">
+        <v>83</v>
+      </c>
+      <c r="I293">
+        <v>2</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>3</v>
+      </c>
+      <c r="L293">
+        <v>3</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293" t="s">
+        <v>273</v>
+      </c>
+      <c r="P293" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q293">
+        <v>1.91</v>
+      </c>
+      <c r="R293">
+        <v>2.6</v>
+      </c>
+      <c r="S293">
+        <v>6</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.2</v>
+      </c>
+      <c r="W293">
+        <v>1.62</v>
+      </c>
+      <c r="X293">
+        <v>5</v>
+      </c>
+      <c r="Y293">
+        <v>1.17</v>
+      </c>
+      <c r="Z293">
+        <v>1.3</v>
+      </c>
+      <c r="AA293">
+        <v>5.55</v>
+      </c>
+      <c r="AB293">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC293">
+        <v>1.02</v>
+      </c>
+      <c r="AD293">
+        <v>19</v>
+      </c>
+      <c r="AE293">
+        <v>1.17</v>
+      </c>
+      <c r="AF293">
+        <v>5</v>
+      </c>
+      <c r="AG293">
+        <v>1.57</v>
+      </c>
+      <c r="AH293">
+        <v>2.41</v>
+      </c>
+      <c r="AI293">
+        <v>1.7</v>
+      </c>
+      <c r="AJ293">
+        <v>2.05</v>
+      </c>
+      <c r="AK293">
+        <v>1.09</v>
+      </c>
+      <c r="AL293">
+        <v>1.15</v>
+      </c>
+      <c r="AM293">
+        <v>2.9</v>
+      </c>
+      <c r="AN293">
+        <v>2.06</v>
+      </c>
+      <c r="AO293">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP293">
+        <v>2.12</v>
+      </c>
+      <c r="AQ293">
+        <v>0.76</v>
+      </c>
+      <c r="AR293">
+        <v>1.58</v>
+      </c>
+      <c r="AS293">
+        <v>1.17</v>
+      </c>
+      <c r="AT293">
+        <v>2.75</v>
+      </c>
+      <c r="AU293">
+        <v>2</v>
+      </c>
+      <c r="AV293">
+        <v>3</v>
+      </c>
+      <c r="AW293">
+        <v>7</v>
+      </c>
+      <c r="AX293">
+        <v>7</v>
+      </c>
+      <c r="AY293">
+        <v>9</v>
+      </c>
+      <c r="AZ293">
+        <v>10</v>
+      </c>
+      <c r="BA293">
+        <v>9</v>
+      </c>
+      <c r="BB293">
+        <v>5</v>
+      </c>
+      <c r="BC293">
+        <v>14</v>
+      </c>
+      <c r="BD293">
+        <v>1.31</v>
+      </c>
+      <c r="BE293">
+        <v>10.75</v>
+      </c>
+      <c r="BF293">
+        <v>4.33</v>
+      </c>
+      <c r="BG293">
+        <v>1.24</v>
+      </c>
+      <c r="BH293">
+        <v>3.48</v>
+      </c>
+      <c r="BI293">
+        <v>1.49</v>
+      </c>
+      <c r="BJ293">
+        <v>2.56</v>
+      </c>
+      <c r="BK293">
+        <v>1.82</v>
+      </c>
+      <c r="BL293">
+        <v>1.99</v>
+      </c>
+      <c r="BM293">
+        <v>2.27</v>
+      </c>
+      <c r="BN293">
+        <v>1.61</v>
+      </c>
+      <c r="BO293">
+        <v>3.08</v>
+      </c>
+      <c r="BP293">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6717403</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>77</v>
+      </c>
+      <c r="H294" t="s">
+        <v>87</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>274</v>
+      </c>
+      <c r="P294" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q294">
+        <v>3.1</v>
+      </c>
+      <c r="R294">
+        <v>2.2</v>
+      </c>
+      <c r="S294">
+        <v>3.4</v>
+      </c>
+      <c r="T294">
+        <v>1.36</v>
+      </c>
+      <c r="U294">
+        <v>3</v>
+      </c>
+      <c r="V294">
+        <v>2.75</v>
+      </c>
+      <c r="W294">
+        <v>1.4</v>
+      </c>
+      <c r="X294">
+        <v>7</v>
+      </c>
+      <c r="Y294">
+        <v>1.1</v>
+      </c>
+      <c r="Z294">
+        <v>2.68</v>
+      </c>
+      <c r="AA294">
+        <v>3.46</v>
+      </c>
+      <c r="AB294">
+        <v>2.56</v>
+      </c>
+      <c r="AC294">
+        <v>1.04</v>
+      </c>
+      <c r="AD294">
+        <v>13</v>
+      </c>
+      <c r="AE294">
+        <v>1.28</v>
+      </c>
+      <c r="AF294">
+        <v>3.75</v>
+      </c>
+      <c r="AG294">
+        <v>1.89</v>
+      </c>
+      <c r="AH294">
+        <v>1.91</v>
+      </c>
+      <c r="AI294">
+        <v>1.67</v>
+      </c>
+      <c r="AJ294">
+        <v>2.1</v>
+      </c>
+      <c r="AK294">
+        <v>1.48</v>
+      </c>
+      <c r="AL294">
+        <v>1.26</v>
+      </c>
+      <c r="AM294">
+        <v>1.55</v>
+      </c>
+      <c r="AN294">
+        <v>1.5</v>
+      </c>
+      <c r="AO294">
+        <v>1.19</v>
+      </c>
+      <c r="AP294">
+        <v>1.47</v>
+      </c>
+      <c r="AQ294">
+        <v>1.18</v>
+      </c>
+      <c r="AR294">
+        <v>1.62</v>
+      </c>
+      <c r="AS294">
+        <v>1.36</v>
+      </c>
+      <c r="AT294">
+        <v>2.98</v>
+      </c>
+      <c r="AU294">
+        <v>6</v>
+      </c>
+      <c r="AV294">
+        <v>7</v>
+      </c>
+      <c r="AW294">
+        <v>7</v>
+      </c>
+      <c r="AX294">
+        <v>1</v>
+      </c>
+      <c r="AY294">
+        <v>13</v>
+      </c>
+      <c r="AZ294">
+        <v>8</v>
+      </c>
+      <c r="BA294">
+        <v>4</v>
+      </c>
+      <c r="BB294">
+        <v>3</v>
+      </c>
+      <c r="BC294">
+        <v>7</v>
+      </c>
+      <c r="BD294">
+        <v>1.88</v>
+      </c>
+      <c r="BE294">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF294">
+        <v>2.27</v>
+      </c>
+      <c r="BG294">
+        <v>1.29</v>
+      </c>
+      <c r="BH294">
+        <v>3.14</v>
+      </c>
+      <c r="BI294">
+        <v>1.6</v>
+      </c>
+      <c r="BJ294">
+        <v>2.32</v>
+      </c>
+      <c r="BK294">
+        <v>1.96</v>
+      </c>
+      <c r="BL294">
+        <v>1.84</v>
+      </c>
+      <c r="BM294">
+        <v>2.48</v>
+      </c>
+      <c r="BN294">
+        <v>1.53</v>
+      </c>
+      <c r="BO294">
+        <v>3.48</v>
+      </c>
+      <c r="BP294">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6717402</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>78</v>
+      </c>
+      <c r="H295" t="s">
+        <v>79</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>3</v>
+      </c>
+      <c r="O295" t="s">
+        <v>275</v>
+      </c>
+      <c r="P295" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q295">
+        <v>2.88</v>
+      </c>
+      <c r="R295">
+        <v>2.2</v>
+      </c>
+      <c r="S295">
+        <v>3.75</v>
+      </c>
+      <c r="T295">
+        <v>1.4</v>
+      </c>
+      <c r="U295">
+        <v>2.75</v>
+      </c>
+      <c r="V295">
+        <v>2.75</v>
+      </c>
+      <c r="W295">
+        <v>1.4</v>
+      </c>
+      <c r="X295">
+        <v>8</v>
+      </c>
+      <c r="Y295">
+        <v>1.08</v>
+      </c>
+      <c r="Z295">
+        <v>1.96</v>
+      </c>
+      <c r="AA295">
+        <v>3.62</v>
+      </c>
+      <c r="AB295">
+        <v>3.74</v>
+      </c>
+      <c r="AC295">
+        <v>1.05</v>
+      </c>
+      <c r="AD295">
+        <v>12</v>
+      </c>
+      <c r="AE295">
+        <v>1.3</v>
+      </c>
+      <c r="AF295">
+        <v>3.6</v>
+      </c>
+      <c r="AG295">
+        <v>1.9</v>
+      </c>
+      <c r="AH295">
+        <v>1.9</v>
+      </c>
+      <c r="AI295">
+        <v>1.75</v>
+      </c>
+      <c r="AJ295">
+        <v>2</v>
+      </c>
+      <c r="AK295">
+        <v>1.35</v>
+      </c>
+      <c r="AL295">
+        <v>1.25</v>
+      </c>
+      <c r="AM295">
+        <v>1.72</v>
+      </c>
+      <c r="AN295">
+        <v>1.31</v>
+      </c>
+      <c r="AO295">
+        <v>1.06</v>
+      </c>
+      <c r="AP295">
+        <v>1.41</v>
+      </c>
+      <c r="AQ295">
+        <v>1</v>
+      </c>
+      <c r="AR295">
+        <v>1.34</v>
+      </c>
+      <c r="AS295">
+        <v>1.03</v>
+      </c>
+      <c r="AT295">
+        <v>2.37</v>
+      </c>
+      <c r="AU295">
+        <v>0</v>
+      </c>
+      <c r="AV295">
+        <v>2</v>
+      </c>
+      <c r="AW295">
+        <v>5</v>
+      </c>
+      <c r="AX295">
+        <v>6</v>
+      </c>
+      <c r="AY295">
+        <v>5</v>
+      </c>
+      <c r="AZ295">
+        <v>8</v>
+      </c>
+      <c r="BA295">
+        <v>3</v>
+      </c>
+      <c r="BB295">
+        <v>6</v>
+      </c>
+      <c r="BC295">
+        <v>9</v>
+      </c>
+      <c r="BD295">
+        <v>1.77</v>
+      </c>
+      <c r="BE295">
+        <v>8.5</v>
+      </c>
+      <c r="BF295">
+        <v>2.47</v>
+      </c>
+      <c r="BG295">
+        <v>1.5</v>
+      </c>
+      <c r="BH295">
+        <v>2.4</v>
+      </c>
+      <c r="BI295">
+        <v>1.74</v>
+      </c>
+      <c r="BJ295">
+        <v>2.08</v>
+      </c>
+      <c r="BK295">
+        <v>2.17</v>
+      </c>
+      <c r="BL295">
+        <v>1.68</v>
+      </c>
+      <c r="BM295">
+        <v>2.98</v>
+      </c>
+      <c r="BN295">
+        <v>1.32</v>
+      </c>
+      <c r="BO295">
+        <v>4.3</v>
+      </c>
+      <c r="BP295">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6717401</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>72</v>
+      </c>
+      <c r="H296" t="s">
+        <v>81</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>3</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>276</v>
+      </c>
+      <c r="P296" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q296">
+        <v>1.83</v>
+      </c>
+      <c r="R296">
+        <v>2.75</v>
+      </c>
+      <c r="S296">
+        <v>6</v>
+      </c>
+      <c r="T296">
+        <v>1.22</v>
+      </c>
+      <c r="U296">
+        <v>4</v>
+      </c>
+      <c r="V296">
+        <v>2</v>
+      </c>
+      <c r="W296">
+        <v>1.73</v>
+      </c>
+      <c r="X296">
+        <v>4.33</v>
+      </c>
+      <c r="Y296">
+        <v>1.2</v>
+      </c>
+      <c r="Z296">
+        <v>1.34</v>
+      </c>
+      <c r="AA296">
+        <v>5.7</v>
+      </c>
+      <c r="AB296">
+        <v>7.7</v>
+      </c>
+      <c r="AC296">
+        <v>1.02</v>
+      </c>
+      <c r="AD296">
+        <v>27</v>
+      </c>
+      <c r="AE296">
+        <v>1.12</v>
+      </c>
+      <c r="AF296">
+        <v>6.5</v>
+      </c>
+      <c r="AG296">
+        <v>1.38</v>
+      </c>
+      <c r="AH296">
+        <v>2.9</v>
+      </c>
+      <c r="AI296">
+        <v>1.62</v>
+      </c>
+      <c r="AJ296">
+        <v>2.2</v>
+      </c>
+      <c r="AK296">
+        <v>1.06</v>
+      </c>
+      <c r="AL296">
+        <v>1.16</v>
+      </c>
+      <c r="AM296">
+        <v>3.1</v>
+      </c>
+      <c r="AN296">
+        <v>2.06</v>
+      </c>
+      <c r="AO296">
+        <v>1.5</v>
+      </c>
+      <c r="AP296">
+        <v>1.94</v>
+      </c>
+      <c r="AQ296">
+        <v>1.59</v>
+      </c>
+      <c r="AR296">
+        <v>1.77</v>
+      </c>
+      <c r="AS296">
+        <v>1.12</v>
+      </c>
+      <c r="AT296">
+        <v>2.89</v>
+      </c>
+      <c r="AU296">
+        <v>2</v>
+      </c>
+      <c r="AV296">
+        <v>3</v>
+      </c>
+      <c r="AW296">
+        <v>7</v>
+      </c>
+      <c r="AX296">
+        <v>8</v>
+      </c>
+      <c r="AY296">
+        <v>9</v>
+      </c>
+      <c r="AZ296">
+        <v>11</v>
+      </c>
+      <c r="BA296">
+        <v>4</v>
+      </c>
+      <c r="BB296">
+        <v>6</v>
+      </c>
+      <c r="BC296">
+        <v>10</v>
+      </c>
+      <c r="BD296">
+        <v>1.38</v>
+      </c>
+      <c r="BE296">
+        <v>10.5</v>
+      </c>
+      <c r="BF296">
+        <v>3.74</v>
+      </c>
+      <c r="BG296">
+        <v>1.16</v>
+      </c>
+      <c r="BH296">
+        <v>4.3</v>
+      </c>
+      <c r="BI296">
+        <v>1.33</v>
+      </c>
+      <c r="BJ296">
+        <v>2.93</v>
+      </c>
+      <c r="BK296">
+        <v>1.67</v>
+      </c>
+      <c r="BL296">
+        <v>2.19</v>
+      </c>
+      <c r="BM296">
+        <v>2.08</v>
+      </c>
+      <c r="BN296">
+        <v>1.74</v>
+      </c>
+      <c r="BO296">
+        <v>2.3</v>
+      </c>
+      <c r="BP296">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -61267,22 +61267,22 @@
         <v>3.17</v>
       </c>
       <c r="AU290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV290">
+        <v>10</v>
+      </c>
+      <c r="AW290">
         <v>8</v>
-      </c>
-      <c r="AW290">
-        <v>6</v>
       </c>
       <c r="AX290">
         <v>5</v>
       </c>
       <c r="AY290">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ290">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA290">
         <v>3</v>
@@ -61473,22 +61473,22 @@
         <v>2.63</v>
       </c>
       <c r="AU291">
+        <v>6</v>
+      </c>
+      <c r="AV291">
         <v>4</v>
       </c>
-      <c r="AV291">
-        <v>3</v>
-      </c>
       <c r="AW291">
         <v>3</v>
       </c>
       <c r="AX291">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY291">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ291">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA291">
         <v>5</v>
@@ -61679,22 +61679,22 @@
         <v>2.73</v>
       </c>
       <c r="AU292">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW292">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX292">
         <v>3</v>
       </c>
       <c r="AY292">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ292">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA292">
         <v>7</v>
@@ -61885,22 +61885,22 @@
         <v>2.75</v>
       </c>
       <c r="AU293">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV293">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW293">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX293">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY293">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ293">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA293">
         <v>9</v>
@@ -62091,22 +62091,22 @@
         <v>2.98</v>
       </c>
       <c r="AU294">
+        <v>7</v>
+      </c>
+      <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
         <v>6</v>
       </c>
-      <c r="AV294">
-        <v>7</v>
-      </c>
-      <c r="AW294">
-        <v>7</v>
-      </c>
       <c r="AX294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY294">
         <v>13</v>
       </c>
       <c r="AZ294">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA294">
         <v>4</v>
@@ -62297,22 +62297,22 @@
         <v>2.37</v>
       </c>
       <c r="AU295">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW295">
         <v>5</v>
       </c>
       <c r="AX295">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY295">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ295">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA295">
         <v>3</v>
@@ -62503,22 +62503,22 @@
         <v>2.89</v>
       </c>
       <c r="AU296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV296">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW296">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX296">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY296">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ296">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA296">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 1_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="405">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1227,6 +1227,9 @@
   <si>
     <t>['13', '68', '90+5']</t>
   </si>
+  <si>
+    <t>['18', '23']</t>
+  </si>
 </sst>
 </file>
 
@@ -1587,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -3781,7 +3784,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4193,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>0.6899999999999999</v>
@@ -7280,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28">
         <v>1.65</v>
@@ -7489,7 +7492,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ29">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR29">
         <v>0.92</v>
@@ -8928,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ36">
         <v>0.9399999999999999</v>
@@ -9137,7 +9140,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
         <v>1.18</v>
@@ -10370,7 +10373,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1.69</v>
@@ -12639,7 +12642,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR54">
         <v>1.75</v>
@@ -13257,7 +13260,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ57">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR57">
         <v>1.56</v>
@@ -13463,7 +13466,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58">
         <v>1.21</v>
@@ -13666,7 +13669,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1.65</v>
@@ -13872,7 +13875,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ60">
         <v>1.69</v>
@@ -15314,7 +15317,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -16347,7 +16350,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR72">
         <v>2.05</v>
@@ -16962,10 +16965,10 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -18610,7 +18613,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>0.76</v>
@@ -19025,7 +19028,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ85">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -21700,7 +21703,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98">
         <v>1.31</v>
@@ -22112,10 +22115,10 @@
         <v>2.2</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR100">
         <v>1.41</v>
@@ -23351,7 +23354,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ106">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR106">
         <v>2.01</v>
@@ -23969,7 +23972,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ109">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR109">
         <v>1.25</v>
@@ -24172,7 +24175,7 @@
         <v>0.86</v>
       </c>
       <c r="AP110">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ110">
         <v>1.59</v>
@@ -25614,7 +25617,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
         <v>0.9399999999999999</v>
@@ -26235,7 +26238,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ120">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -28498,7 +28501,7 @@
         <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ131">
         <v>1.18</v>
@@ -29531,7 +29534,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ136">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR136">
         <v>1.12</v>
@@ -31385,7 +31388,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ145">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR145">
         <v>1.5</v>
@@ -31794,7 +31797,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -32206,7 +32209,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ149">
         <v>1.18</v>
@@ -33033,7 +33036,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ153">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -35093,7 +35096,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ163">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR163">
         <v>1.75</v>
@@ -35502,7 +35505,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -36532,7 +36535,7 @@
         <v>0.75</v>
       </c>
       <c r="AP170">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>1.31</v>
@@ -37153,7 +37156,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ173">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR173">
         <v>1.25</v>
@@ -37974,7 +37977,7 @@
         <v>0.9</v>
       </c>
       <c r="AP177">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ177">
         <v>1.59</v>
@@ -38801,7 +38804,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ181">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR181">
         <v>1.63</v>
@@ -40652,7 +40655,7 @@
         <v>1.6</v>
       </c>
       <c r="AP190">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ190">
         <v>2</v>
@@ -41273,7 +41276,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ193">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR193">
         <v>1.42</v>
@@ -42300,7 +42303,7 @@
         <v>1.36</v>
       </c>
       <c r="AP198">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198">
         <v>1.18</v>
@@ -42509,7 +42512,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ199">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR199">
         <v>1.73</v>
@@ -43948,7 +43951,7 @@
         <v>0.82</v>
       </c>
       <c r="AP206">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ206">
         <v>0.6899999999999999</v>
@@ -44569,7 +44572,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ209">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR209">
         <v>1.7</v>
@@ -44772,7 +44775,7 @@
         <v>1</v>
       </c>
       <c r="AP210">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ210">
         <v>1.29</v>
@@ -44981,7 +44984,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ211">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR211">
         <v>1.38</v>
@@ -46420,7 +46423,7 @@
         <v>0.91</v>
       </c>
       <c r="AP218">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ218">
         <v>1.44</v>
@@ -49510,7 +49513,7 @@
         <v>1.08</v>
       </c>
       <c r="AP233">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ233">
         <v>1</v>
@@ -49719,7 +49722,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ234">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR234">
         <v>1.67</v>
@@ -49925,7 +49928,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR235">
         <v>1.65</v>
@@ -51364,7 +51367,7 @@
         <v>1.08</v>
       </c>
       <c r="AP242">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ242">
         <v>1.31</v>
@@ -51779,7 +51782,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ244">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR244">
         <v>1.57</v>
@@ -51985,7 +51988,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ245">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR245">
         <v>1.7</v>
@@ -52806,7 +52809,7 @@
         <v>1.38</v>
       </c>
       <c r="AP249">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ249">
         <v>1.44</v>
@@ -55072,7 +55075,7 @@
         <v>0.93</v>
       </c>
       <c r="AP260">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ260">
         <v>0.76</v>
@@ -55690,7 +55693,7 @@
         <v>1.21</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ263">
         <v>1.44</v>
@@ -56517,7 +56520,7 @@
         <v>1</v>
       </c>
       <c r="AQ267">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR267">
         <v>1.43</v>
@@ -56929,7 +56932,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ269">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR269">
         <v>1.2</v>
@@ -60840,7 +60843,7 @@
         <v>0.75</v>
       </c>
       <c r="AP288">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ288">
         <v>0.71</v>
@@ -62567,6 +62570,418 @@
       </c>
       <c r="BP296">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6717396</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45427.66666666666</v>
+      </c>
+      <c r="F297">
+        <v>32</v>
+      </c>
+      <c r="G297" t="s">
+        <v>84</v>
+      </c>
+      <c r="H297" t="s">
+        <v>71</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
+        <v>229</v>
+      </c>
+      <c r="P297" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q297">
+        <v>3.25</v>
+      </c>
+      <c r="R297">
+        <v>2.25</v>
+      </c>
+      <c r="S297">
+        <v>3</v>
+      </c>
+      <c r="T297">
+        <v>1.33</v>
+      </c>
+      <c r="U297">
+        <v>3.25</v>
+      </c>
+      <c r="V297">
+        <v>2.63</v>
+      </c>
+      <c r="W297">
+        <v>1.44</v>
+      </c>
+      <c r="X297">
+        <v>6.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.11</v>
+      </c>
+      <c r="Z297">
+        <v>2.44</v>
+      </c>
+      <c r="AA297">
+        <v>3.5</v>
+      </c>
+      <c r="AB297">
+        <v>2.6</v>
+      </c>
+      <c r="AC297">
+        <v>1.05</v>
+      </c>
+      <c r="AD297">
+        <v>13.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.24</v>
+      </c>
+      <c r="AF297">
+        <v>4.2</v>
+      </c>
+      <c r="AG297">
+        <v>1.7</v>
+      </c>
+      <c r="AH297">
+        <v>2.05</v>
+      </c>
+      <c r="AI297">
+        <v>1.57</v>
+      </c>
+      <c r="AJ297">
+        <v>2.25</v>
+      </c>
+      <c r="AK297">
+        <v>1.58</v>
+      </c>
+      <c r="AL297">
+        <v>1.25</v>
+      </c>
+      <c r="AM297">
+        <v>1.48</v>
+      </c>
+      <c r="AN297">
+        <v>1.4</v>
+      </c>
+      <c r="AO297">
+        <v>0.73</v>
+      </c>
+      <c r="AP297">
+        <v>1.5</v>
+      </c>
+      <c r="AQ297">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR297">
+        <v>1.51</v>
+      </c>
+      <c r="AS297">
+        <v>1.42</v>
+      </c>
+      <c r="AT297">
+        <v>2.93</v>
+      </c>
+      <c r="AU297">
+        <v>4</v>
+      </c>
+      <c r="AV297">
+        <v>4</v>
+      </c>
+      <c r="AW297">
+        <v>4</v>
+      </c>
+      <c r="AX297">
+        <v>10</v>
+      </c>
+      <c r="AY297">
+        <v>8</v>
+      </c>
+      <c r="AZ297">
+        <v>14</v>
+      </c>
+      <c r="BA297">
+        <v>3</v>
+      </c>
+      <c r="BB297">
+        <v>10</v>
+      </c>
+      <c r="BC297">
+        <v>13</v>
+      </c>
+      <c r="BD297">
+        <v>2.05</v>
+      </c>
+      <c r="BE297">
+        <v>7.9</v>
+      </c>
+      <c r="BF297">
+        <v>2</v>
+      </c>
+      <c r="BG297">
+        <v>1.25</v>
+      </c>
+      <c r="BH297">
+        <v>3.6</v>
+      </c>
+      <c r="BI297">
+        <v>1.5</v>
+      </c>
+      <c r="BJ297">
+        <v>2.4</v>
+      </c>
+      <c r="BK297">
+        <v>1.85</v>
+      </c>
+      <c r="BL297">
+        <v>1.85</v>
+      </c>
+      <c r="BM297">
+        <v>2.4</v>
+      </c>
+      <c r="BN297">
+        <v>1.5</v>
+      </c>
+      <c r="BO297">
+        <v>3.2</v>
+      </c>
+      <c r="BP297">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6717395</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45427.66666666666</v>
+      </c>
+      <c r="F298">
+        <v>32</v>
+      </c>
+      <c r="G298" t="s">
+        <v>70</v>
+      </c>
+      <c r="H298" t="s">
+        <v>72</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>2</v>
+      </c>
+      <c r="K298">
+        <v>3</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>2</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>226</v>
+      </c>
+      <c r="P298" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q298">
+        <v>3.25</v>
+      </c>
+      <c r="R298">
+        <v>2.38</v>
+      </c>
+      <c r="S298">
+        <v>2.88</v>
+      </c>
+      <c r="T298">
+        <v>1.3</v>
+      </c>
+      <c r="U298">
+        <v>3.4</v>
+      </c>
+      <c r="V298">
+        <v>2.38</v>
+      </c>
+      <c r="W298">
+        <v>1.53</v>
+      </c>
+      <c r="X298">
+        <v>6</v>
+      </c>
+      <c r="Y298">
+        <v>1.13</v>
+      </c>
+      <c r="Z298">
+        <v>2.86</v>
+      </c>
+      <c r="AA298">
+        <v>3.55</v>
+      </c>
+      <c r="AB298">
+        <v>2.14</v>
+      </c>
+      <c r="AC298">
+        <v>1.04</v>
+      </c>
+      <c r="AD298">
+        <v>18</v>
+      </c>
+      <c r="AE298">
+        <v>1.19</v>
+      </c>
+      <c r="AF298">
+        <v>4.75</v>
+      </c>
+      <c r="AG298">
+        <v>1.6</v>
+      </c>
+      <c r="AH298">
+        <v>2.25</v>
+      </c>
+      <c r="AI298">
+        <v>1.53</v>
+      </c>
+      <c r="AJ298">
+        <v>2.38</v>
+      </c>
+      <c r="AK298">
+        <v>1.66</v>
+      </c>
+      <c r="AL298">
+        <v>1.22</v>
+      </c>
+      <c r="AM298">
+        <v>1.44</v>
+      </c>
+      <c r="AN298">
+        <v>1.94</v>
+      </c>
+      <c r="AO298">
+        <v>2.47</v>
+      </c>
+      <c r="AP298">
+        <v>1.82</v>
+      </c>
+      <c r="AQ298">
+        <v>2.5</v>
+      </c>
+      <c r="AR298">
+        <v>1.52</v>
+      </c>
+      <c r="AS298">
+        <v>1.62</v>
+      </c>
+      <c r="AT298">
+        <v>3.14</v>
+      </c>
+      <c r="AU298">
+        <v>5</v>
+      </c>
+      <c r="AV298">
+        <v>5</v>
+      </c>
+      <c r="AW298">
+        <v>6</v>
+      </c>
+      <c r="AX298">
+        <v>4</v>
+      </c>
+      <c r="AY298">
+        <v>11</v>
+      </c>
+      <c r="AZ298">
+        <v>9</v>
+      </c>
+      <c r="BA298">
+        <v>7</v>
+      </c>
+      <c r="BB298">
+        <v>2</v>
+      </c>
+      <c r="BC298">
+        <v>9</v>
+      </c>
+      <c r="BD298">
+        <v>1.57</v>
+      </c>
+      <c r="BE298">
+        <v>8.5</v>
+      </c>
+      <c r="BF298">
+        <v>2.8</v>
+      </c>
+      <c r="BG298">
+        <v>1.33</v>
+      </c>
+      <c r="BH298">
+        <v>3</v>
+      </c>
+      <c r="BI298">
+        <v>1.51</v>
+      </c>
+      <c r="BJ298">
+        <v>2.37</v>
+      </c>
+      <c r="BK298">
+        <v>1.9</v>
+      </c>
+      <c r="BL298">
+        <v>1.8</v>
+      </c>
+      <c r="BM298">
+        <v>2.47</v>
+      </c>
+      <c r="BN298">
+        <v>1.48</v>
+      </c>
+      <c r="BO298">
+        <v>3.2</v>
+      </c>
+      <c r="BP298">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
